--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,12 +411,35 @@
     <t>检测应用程序访问私有标识符推断安全风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.malgenomeproject.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android恶意软件库(1000+)，但是目前已经弃项了。（不过曾向南大公布过datasets，求助陈老师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https//www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android恶意软件库（5000+）10~12年的，高校教职人员可以发送邮件获取，并且向南大开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/maaaaz/androwarn/</t>
+  </si>
+  <si>
+    <t>通过APP的Dalvik字节码进行静态检测，主要检测APP中潜在的恶意行为，会自动生成txt或html格式的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +469,14 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -486,13 +517,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -512,9 +544,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="7">
@@ -557,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B9" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="常规">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B11" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="常规">
+  <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="论文" dataDxfId="4"/>
     <tableColumn id="2" name="描述" dataDxfId="3"/>
@@ -568,8 +604,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B50" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B51" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A1:B51"/>
   <tableColumns count="2">
     <tableColumn id="1" name="论文" dataDxfId="1"/>
     <tableColumn id="2" name="描述" dataDxfId="0"/>
@@ -841,19 +877,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.875" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="61.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -869,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -901,13 +937,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -915,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -923,30 +959,50 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.375" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,13 +1010,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -968,7 +1024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -976,7 +1032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1000,13 +1056,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1022,13 +1078,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1036,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
@@ -1044,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1052,7 +1108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -1076,7 +1132,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -1084,7 +1140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1100,7 +1156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
@@ -1108,7 +1164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>53</v>
       </c>
@@ -1116,7 +1172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -1124,7 +1180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -1132,7 +1188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
@@ -1140,13 +1196,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
@@ -1154,7 +1210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -1162,7 +1218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -1170,13 +1226,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -1184,7 +1240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -1192,13 +1248,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>74</v>
       </c>
@@ -1206,7 +1262,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
@@ -1214,7 +1270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -1222,7 +1278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>79</v>
       </c>
@@ -1230,7 +1286,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>81</v>
       </c>
@@ -1238,7 +1294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>83</v>
       </c>
@@ -1246,7 +1302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -1254,7 +1310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>87</v>
       </c>
@@ -1262,7 +1318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
@@ -1270,7 +1326,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>90</v>
       </c>
@@ -1278,7 +1334,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>92</v>
       </c>
@@ -1286,13 +1342,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>95</v>
       </c>
@@ -1300,7 +1356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>97</v>
       </c>
@@ -1308,7 +1364,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>99</v>
       </c>
@@ -1316,7 +1372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -1324,7 +1380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>103</v>
       </c>
@@ -1332,8 +1388,16 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
+    <row r="51" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,32 +34,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>android恶意软件库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D. E. Krutz, et al., “A dataset of open-source Android applications,” in Proc. 12th Working Conf. Mining Softw. Repositories, 2015, pp. 522–525</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开源应用数据集</t>
-  </si>
-  <si>
     <t>R. Stevens, J. Ganz, V. Filkov, P. Devanbu, and H. Chen, “Asking for (and about) permissions used by Android apps,” in Proc. 10th Working Conf. Mining Softw. Repositories, 2013, pp. 31–40.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AndroZoo: apk数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y. Zhou and X. Jiang, “Dissecting Android Malware: Characterization and evolution,” in Proc. IEEE Symp. Secur. Privacy, 2012, pp. 95–109.</t>
-  </si>
-  <si>
-    <t>恶意软件仓库 第二个需翻墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">https://virusshare.com/ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,10 +55,6 @@
   </si>
   <si>
     <t>PlayDrone: Google Play  爬虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬虫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -412,18 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.malgenomeproject.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android恶意软件库(1000+)，但是目前已经弃项了。（不过曾向南大公布过datasets，求助陈老师）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https//www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>android恶意软件库（5000+）10~12年的，高校教职人员可以发送邮件获取，并且向南大开放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,6 +398,85 @@
   </si>
   <si>
     <t>通过APP的Dalvik字节码进行静态检测，主要检测APP中潜在的恶意行为，会自动生成txt或html格式的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AndroSec/AndroSecDatabases</t>
+  </si>
+  <si>
+    <t>开源应用数据集，包含1179个引用，4416个版本和435680的提交，以及使用Androguard，Sonar和Stowaway；以及清单文件/权限的分析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroZoo: Apk数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u013107656/article/details/67632235</t>
+  </si>
+  <si>
+    <t>移动应用安全工具总结，谁来整合一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/apklyze/</t>
+  </si>
+  <si>
+    <t>AndroidZoo的分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/access</t>
+  </si>
+  <si>
+    <t>https://virusshare.com/research.4n6</t>
+  </si>
+  <si>
+    <t>提到了很多关于安卓恶意软件分析的论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在拉取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android恶意软件库，恶意软件库(1000+)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,19 +569,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -544,8 +583,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -553,7 +602,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -562,6 +611,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -593,22 +651,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B11" totalsRowShown="0" dataDxfId="6" tableBorderDxfId="5" headerRowCellStyle="常规">
-  <autoFilter ref="A1:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="论文" dataDxfId="4"/>
-    <tableColumn id="2" name="描述" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="常规">
+  <autoFilter ref="A1:D11"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="论文" dataDxfId="7"/>
+    <tableColumn id="2" name="描述" dataDxfId="6"/>
+    <tableColumn id="3" name="状态" dataDxfId="5"/>
+    <tableColumn id="4" name="备注" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B51" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A1:B51"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="论文" dataDxfId="1"/>
-    <tableColumn id="2" name="描述" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C54" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C54"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="论文" dataDxfId="2"/>
+    <tableColumn id="2" name="描述" dataDxfId="1"/>
+    <tableColumn id="3" name="状态" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,123 +938,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D13:D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.88671875" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1002,402 +1102,479 @@
     <col min="2" max="2" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>android恶意软件库，恶意软件库(1000+)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,19 +945,19 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -981,7 +985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -995,7 +999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1025,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1035,17 +1039,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,19 +1061,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1096,13 +1102,13 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="65.375" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,14 +1119,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1135,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1144,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1162,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1165,14 +1171,14 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1187,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1190,14 +1196,14 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1230,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1233,7 +1239,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1323,14 +1329,14 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1348,7 +1354,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1357,14 +1363,14 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1373,7 +1379,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1382,14 +1388,14 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1416,7 +1422,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1452,7 +1458,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -1461,7 +1467,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1479,7 +1485,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1488,14 +1494,14 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -1504,7 +1510,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -1513,7 +1519,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -1540,7 +1546,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
@@ -1567,7 +1573,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testA</t>
+    <t>testB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,20 +944,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1061,19 +1061,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1102,13 +1102,13 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.375" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1388,14 +1388,14 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testB</t>
+    <t>testAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,16 +948,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -999,7 +999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1061,19 +1061,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1102,13 +1102,13 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="65.375" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,14 +1119,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1171,14 +1171,14 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1329,14 +1329,14 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1363,14 +1363,14 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1388,14 +1388,14 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>android恶意软件库，恶意软件库(1000+)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,19 +945,19 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -981,7 +985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -995,7 +999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1025,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1035,17 +1039,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,19 +1061,19 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1096,13 +1102,13 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.33203125" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="1" max="1" width="65.375" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,14 +1119,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1135,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1144,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1162,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1165,14 +1171,14 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1187,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1190,14 +1196,14 @@
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1212,7 @@
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1224,7 +1230,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1233,7 +1239,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
@@ -1260,7 +1266,7 @@
       </c>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -1296,7 +1302,7 @@
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1305,7 +1311,7 @@
       </c>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1320,7 @@
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1323,14 +1329,14 @@
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -1339,7 +1345,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -1348,7 +1354,7 @@
       </c>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1357,14 +1363,14 @@
       </c>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -1373,7 +1379,7 @@
       </c>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
@@ -1382,14 +1388,14 @@
       </c>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>71</v>
       </c>
@@ -1416,7 +1422,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>73</v>
       </c>
@@ -1425,7 +1431,7 @@
       </c>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1443,7 +1449,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1452,7 +1458,7 @@
       </c>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>81</v>
       </c>
@@ -1461,7 +1467,7 @@
       </c>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>99</v>
       </c>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -1479,7 +1485,7 @@
       </c>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -1488,14 +1494,14 @@
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
@@ -1504,7 +1510,7 @@
       </c>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>91</v>
       </c>
@@ -1513,7 +1519,7 @@
       </c>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>95</v>
       </c>
@@ -1531,7 +1537,7 @@
       </c>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>97</v>
       </c>
@@ -1540,7 +1546,7 @@
       </c>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>103</v>
       </c>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>111</v>
       </c>
@@ -1558,7 +1564,7 @@
       </c>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
@@ -1567,7 +1573,7 @@
       </c>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
     <sheet name="工具" sheetId="2" r:id="rId2"/>
-    <sheet name="爬虫" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="爬虫" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,89 +396,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>通过APP的Dalvik字节码进行静态检测，主要检测APP中潜在的恶意行为，会自动生成txt或html格式的报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AndroSec/AndroSecDatabases</t>
+  </si>
+  <si>
+    <t>开源应用数据集，包含1179个引用，4416个版本和435680的提交，以及使用Androguard，Sonar和Stowaway；以及清单文件/权限的分析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroZoo: Apk数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u013107656/article/details/67632235</t>
+  </si>
+  <si>
+    <t>移动应用安全工具总结，谁来整合一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/apklyze/</t>
+  </si>
+  <si>
+    <t>AndroidZoo的分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/access</t>
+  </si>
+  <si>
+    <t>https://virusshare.com/research.4n6</t>
+  </si>
+  <si>
+    <t>提到了很多关于安卓恶意软件分析的论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在拉取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android恶意软件库，恶意软件库(1000+)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/maaaaz/androwarn/</t>
-  </si>
-  <si>
-    <t>通过APP的Dalvik字节码进行静态检测，主要检测APP中潜在的恶意行为，会自动生成txt或html格式的报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/AndroSec/AndroSecDatabases</t>
-  </si>
-  <si>
-    <t>开源应用数据集，包含1179个引用，4416个版本和435680的提交，以及使用Androguard，Sonar和Stowaway；以及清单文件/权限的分析。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AndroZoo: Apk数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u013107656/article/details/67632235</t>
-  </si>
-  <si>
-    <t>移动应用安全工具总结，谁来整合一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://androzoo.uni.lu/apklyze/</t>
-  </si>
-  <si>
-    <t>AndroidZoo的分析工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://androzoo.uni.lu/access</t>
-  </si>
-  <si>
-    <t>https://virusshare.com/research.4n6</t>
-  </si>
-  <si>
-    <t>提到了很多关于安卓恶意软件分析的论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在拉取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android恶意软件库，恶意软件库(1000+)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androwarn</t>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +738,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -755,13 +792,64 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="double">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -795,42 +883,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="double">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -874,32 +926,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12" headerRowCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16" headerRowCellStyle="常规">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="论文" dataDxfId="11"/>
-    <tableColumn id="2" name="描述" dataDxfId="10"/>
-    <tableColumn id="3" name="状态" dataDxfId="9"/>
-    <tableColumn id="4" name="备注" dataDxfId="8"/>
+    <tableColumn id="1" name="论文" dataDxfId="15"/>
+    <tableColumn id="2" name="描述" dataDxfId="14"/>
+    <tableColumn id="3" name="状态" dataDxfId="13"/>
+    <tableColumn id="4" name="备注" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C54" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:C54"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="论文" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G54" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:G54"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="工具名" dataDxfId="10"/>
+    <tableColumn id="5" name="来源" dataDxfId="2"/>
     <tableColumn id="2" name="描述" dataDxfId="5"/>
     <tableColumn id="3" name="状态" dataDxfId="4"/>
+    <tableColumn id="4" name="审查人" dataDxfId="3"/>
+    <tableColumn id="6" name="输入" dataDxfId="1"/>
+    <tableColumn id="7" name="输出" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1197,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1208,13 +1264,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1222,13 +1278,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1236,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1253,22 +1309,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1306,507 +1362,760 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.375" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B51" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1823,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
     <sheet name="工具" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="爬虫" sheetId="3" r:id="rId4"/>
+    <sheet name="爬虫" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>提出了使用描述术语和安全许可之间的链接来识别可疑异常值的第一步恶意软件检测方法。</t>
-  </si>
-  <si>
-    <t>Y. Yang, J. Stella Sun, and M. W. Berry, “APPIC: Finding the hidden scene behind description files for Android apps,” Dept. Electrical Eng. Comput. Sci., Univ. Tennessee, Knoxville, TN, USA, Tech. Rep. id:lda, 2014.</t>
   </si>
   <si>
     <t>L. Cen, L. Si, N. Li, and H. Jin, “User comment analysis for Android apps and CSPI detection with comment expansion,” in Proc. 1st Int. Workshop on Privacy-Preserving IR, 2014, pp. 25–30.</t>
@@ -515,6 +512,14 @@
   </si>
   <si>
     <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y. Yang, J. Stella Sun, and M. W. Berry, “APPIC: Finding the hidden scene behind description files for Android apps,” Dept. Electrical Eng. Comput. Sci., Univ. Tennessee, Knoxville, TN, USA, Tech. Rep. id:lda, 2014.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要技术关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,22 +806,7 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -891,6 +881,24 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -926,36 +934,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="16" headerRowCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" headerRowCellStyle="常规">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="论文" dataDxfId="15"/>
-    <tableColumn id="2" name="描述" dataDxfId="14"/>
-    <tableColumn id="3" name="状态" dataDxfId="13"/>
-    <tableColumn id="4" name="备注" dataDxfId="12"/>
+    <tableColumn id="1" name="论文" dataDxfId="16"/>
+    <tableColumn id="2" name="描述" dataDxfId="15"/>
+    <tableColumn id="3" name="状态" dataDxfId="14"/>
+    <tableColumn id="4" name="备注" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G54" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:G54"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="工具名" dataDxfId="10"/>
-    <tableColumn id="5" name="来源" dataDxfId="2"/>
-    <tableColumn id="2" name="描述" dataDxfId="5"/>
-    <tableColumn id="3" name="状态" dataDxfId="4"/>
-    <tableColumn id="4" name="审查人" dataDxfId="3"/>
-    <tableColumn id="6" name="输入" dataDxfId="1"/>
-    <tableColumn id="7" name="输出" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H54" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:H54"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="工具名" dataDxfId="11"/>
+    <tableColumn id="5" name="来源" dataDxfId="10"/>
+    <tableColumn id="2" name="描述" dataDxfId="9"/>
+    <tableColumn id="3" name="状态" dataDxfId="8"/>
+    <tableColumn id="4" name="审查人" dataDxfId="7"/>
+    <tableColumn id="6" name="输入" dataDxfId="6"/>
+    <tableColumn id="7" name="输出" dataDxfId="5"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1233,7 +1242,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1253,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
@@ -1264,13 +1273,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1278,13 +1287,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1292,13 +1301,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1309,22 +1318,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1362,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1375,32 +1384,36 @@
     <col min="3" max="3" width="43.25" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1410,8 +1423,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1423,8 +1437,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1436,652 +1451,703 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2096,21 +2162,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2132,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2165,4 +2216,19 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,15 +511,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y. Yang, J. Stella Sun, and M. W. Berry, “APPIC: Finding the hidden scene behind description files for Android apps,” Dept. Electrical Eng. Comput. Sci., Univ. Tennessee, Knoxville, TN, USA, Tech. Rep. id:lda, 2014.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主要技术关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告（txt和html格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,9 +816,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
@@ -899,6 +904,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -957,14 +965,14 @@
     <tableColumn id="4" name="审查人" dataDxfId="7"/>
     <tableColumn id="6" name="输入" dataDxfId="6"/>
     <tableColumn id="7" name="输出" dataDxfId="5"/>
-    <tableColumn id="8" name="主要技术关键字" dataDxfId="0"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1245,16 +1253,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1330,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -1336,19 +1344,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1373,21 +1381,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1410,10 +1418,10 @@
         <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1425,7 +1433,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1439,7 +1447,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1453,10 +1461,10 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>99</v>
@@ -1467,7 +1475,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1481,7 +1489,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1495,7 +1503,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -1507,7 +1515,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -1521,7 +1529,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1535,7 +1543,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1547,7 +1555,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1561,7 +1569,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1575,7 +1583,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1589,7 +1597,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1603,7 +1611,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1617,7 +1625,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -1631,7 +1639,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -1645,7 +1653,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1659,7 +1667,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -1673,7 +1681,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1687,7 +1695,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1701,7 +1709,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -1715,7 +1723,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -1729,7 +1737,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -1743,7 +1751,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -1755,7 +1763,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -1769,7 +1777,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -1783,7 +1791,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -1797,7 +1805,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -1809,7 +1817,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -1823,7 +1831,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -1837,7 +1845,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -1849,7 +1857,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
@@ -1863,7 +1871,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -1877,7 +1885,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -1891,7 +1899,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -1905,7 +1913,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -1919,7 +1927,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -1933,7 +1941,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -1947,7 +1955,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -1961,7 +1969,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -1975,7 +1983,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -1989,7 +1997,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -2003,7 +2011,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -2015,7 +2023,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -2029,7 +2037,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -2043,7 +2051,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -2057,7 +2065,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -2071,7 +2079,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -2085,7 +2093,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
@@ -2095,7 +2103,9 @@
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E51" s="3" t="s">
         <v>131</v>
       </c>
@@ -2103,11 +2113,13 @@
         <v>132</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>109</v>
@@ -2121,7 +2133,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>111</v>
@@ -2135,7 +2147,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>117</v>
@@ -2155,8 +2167,9 @@
     <hyperlink ref="B51" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2169,13 +2182,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2189,7 +2202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2212,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2239,7 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1446,9 @@
         <v>13</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -405,121 +405,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开源应用数据集，包含1179个引用，4416个版本和435680的提交，以及使用Androguard，Sonar和Stowaway；以及清单文件/权限的分析。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroZoo: Apk数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u013107656/article/details/67632235</t>
+  </si>
+  <si>
+    <t>移动应用安全工具总结，谁来整合一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/apklyze/</t>
+  </si>
+  <si>
+    <t>AndroidZoo的分析工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://virusshare.com/research.4n6</t>
+  </si>
+  <si>
+    <t>提到了很多关于安卓恶意软件分析的论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在拉取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android恶意软件库，恶意软件库(1000+)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审查人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/maaaaz/androwarn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androwarn</t>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y. Yang, J. Stella Sun, and M. W. Berry, “APPIC: Finding the hidden scene behind description files for Android apps,” Dept. Electrical Eng. Comput. Sci., Univ. Tennessee, Knoxville, TN, USA, Tech. Rep. id:lda, 2014.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要技术关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/AndroSec/AndroSecDatabases</t>
-  </si>
-  <si>
-    <t>开源应用数据集，包含1179个引用，4416个版本和435680的提交，以及使用Androguard，Sonar和Stowaway；以及清单文件/权限的分析。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AndroZoo: Apk数据集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.csdn.net/u013107656/article/details/67632235</t>
-  </si>
-  <si>
-    <t>移动应用安全工具总结，谁来整合一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://androzoo.uni.lu/apklyze/</t>
-  </si>
-  <si>
-    <t>AndroidZoo的分析工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://androzoo.uni.lu/access</t>
-  </si>
-  <si>
-    <t>https://virusshare.com/research.4n6</t>
-  </si>
-  <si>
-    <t>提到了很多关于安卓恶意软件分析的论文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在拉取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android恶意软件库，恶意软件库(1000+)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审查人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/maaaaz/androwarn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>androwarn</t>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y. Yang, J. Stella Sun, and M. W. Berry, “APPIC: Finding the hidden scene behind description files for Android apps,” Dept. Electrical Eng. Comput. Sci., Univ. Tennessee, Knoxville, TN, USA, Tech. Rep. id:lda, 2014.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要技术关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,9 +810,6 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
@@ -899,6 +898,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -957,14 +959,14 @@
     <tableColumn id="4" name="审查人" dataDxfId="7"/>
     <tableColumn id="6" name="输入" dataDxfId="6"/>
     <tableColumn id="7" name="输出" dataDxfId="5"/>
-    <tableColumn id="8" name="主要技术关键字" dataDxfId="0"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1242,7 +1244,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1273,13 +1275,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1287,13 +1289,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1301,13 +1303,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -1318,22 +1320,22 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1360,11 +1362,13 @@
     <hyperlink ref="A5" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1389,10 +1393,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1401,16 +1405,16 @@
         <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1456,7 +1460,7 @@
     <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>99</v>
@@ -2087,33 +2091,33 @@
     </row>
     <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2124,10 +2128,10 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2138,10 +2142,10 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2166,7 +2170,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,30 @@
   </si>
   <si>
     <t>报告（txt和html格式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSIKMON（方法，非工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集&amp;待评应用的相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习（SVM）、API traces</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1385,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1437,21 +1461,31 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1476,7 +1510,9 @@
         <v>99</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
     <sheet name="工具" sheetId="2" r:id="rId2"/>
     <sheet name="爬虫" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="思路" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="226">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,12 +558,278 @@
     <t>蒋燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>androguard-&gt;androrisk.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>androguard中用来评判应用程序风险的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种对常见代码混淆有弹性的第三方库检测技术，能够精确确定应用程序中使用的确切库版本。通过从原始库SDK生成的综合库数据库中的配置文件检测第三方库的风险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reliable third-party library detection in Android and its security applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方库的识别工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libd: Scalable and precise third-party library detection in Android markets</t>
+  </si>
+  <si>
+    <t>侦测逻辑炸弹类的恶意程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triggerscope: Towards detecting logic bombs in android applications</t>
+  </si>
+  <si>
+    <t>好像可以自动生成恶意软件的工具，实验时还提到了57个恶意软件检测工具，可以尝试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystique: Evolving Android malware for auditing anti-malware tools</t>
+  </si>
+  <si>
+    <t>一款能够准确，即时检测Android应用中使用的第三方库的工具</t>
+  </si>
+  <si>
+    <t>Libradar: Fast and accurate detection of third-party libraries in android apps</t>
+  </si>
+  <si>
+    <t>通过引入流式机器学习型MD框架StormDroid解决了恶意软件检测（MD）问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stormdroid: A streaminglized machine learning-based system for detecting android malware</t>
+  </si>
+  <si>
+    <t>该系统生成用于检测Android恶意软件的功能集。我们使用这些功能在良性和恶意应用程序的大型数据集上训练分类器。这个分类器的真正的正确率达到了92.5％，只有1％的误报率</t>
+  </si>
+  <si>
+    <t>需优先测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Featuresmith: Automatically engineering features for malware detection by mining the security literature</t>
+  </si>
+  <si>
+    <t>FeatureSmith</t>
+  </si>
+  <si>
+    <t>基于硬件的恶意软件检测器</t>
+  </si>
+  <si>
+    <t>Quantifying and improving the efficiency of hardware-based mobile malware detectors</t>
+  </si>
+  <si>
+    <t>一个利用静态和动态方法精确检测Android恶意软件的框架。 静态分析基于n-gram匹配，而动态分析基于设备，应用和用户行为的多级监控。</t>
+  </si>
+  <si>
+    <t>BRIDEMAID: An Hybrid Tool for Accurate Detection of Android Malware</t>
+  </si>
+  <si>
+    <t>RealDroid，这是一个动态的，基于仿真器的分析系统，可以捕获Android恶意软件，并且能够进行大规模的恶意软件检测。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealDroid: Large-Scale Evasive Malware Detection on" Real Devices"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revisiting Static Analysis of Android Malware</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Revisiting-Static-Analysis-of-Android-Malware-Gagnon-Massicotte/064c5703e680ef2067777e4924c329e9a72fe2f1</t>
+  </si>
+  <si>
+    <t>https://www.usenix.org/system/files/conference/cset17/cset17-paper-gagnon.pdf</t>
+  </si>
+  <si>
+    <t>pdfs.semanticscholar.org</t>
+  </si>
+  <si>
+    <t>Usenix Security Symposium</t>
+  </si>
+  <si>
+    <t>The mobile malware threat is fought by both static and dynamic analysis, two complementary approaches in need of constant sharpening. In this paper, static analysis is revisited to update and deepen knowledge about Android malware, correlate malicious samples through common artifacts, and further understand malware developers’ modus operandi. By looking at more than 200,000 malware samples, our study revealed interesting new insights such as: the presence of duplicated permissions in the manifest, the variation of the certificate validity period between malware and benign applications, the pertinence of looking at each sample’s certificate file name, and the presence of Android applications nested inside other applications (APKs inside APKs). We also seek to revisit previous findings from related work on Android static analysis in order to confirm or refute them. In some cases, our findings are significantly different from previous work (e.g., diversity of certificates used to sign malware). Therefore, since the Android malware landscape is evolving, we conclude that our overall knowledge must be kept up-to-date.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>inc_url</t>
+  </si>
+  <si>
+    <t>pdf_url</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>published_in</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>一个半自动化框架检测隐私违规行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toward a framework for detecting privacy policy violations in android application code</t>
+  </si>
+  <si>
+    <t>EspyDroid，一种将动态分析与代码检测相结合的系统，可以更精确和自动地检测使用反射的恶意软件（恶意软件可以用反射逃脱静态检测）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTER: Detection of Information Leaks via Reflection in Android Apps</t>
+  </si>
+  <si>
+    <t>DroidBench是一个开放的测试套件，用于评估专门针对Android应用程序的污点分析工具的有效性。该套件可用于评估静态和动态污点分析，但特别是它包含有趣的静态分析问题（字段敏感性，对象敏感性，访问路径长度的权衡等）的测试用例以及Android特定像正确建模应用程序生命周期，充分处理异步回调以及与UI交互等挑战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/secure-software-engineering/DroidBench</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了一种新的基于模型检查的应用程序间共谋检测方法</t>
+  </si>
+  <si>
+    <t>POSTER: Detecting Inter-App Information Leakage Paths</t>
+  </si>
+  <si>
+    <t>结合运行时行为和静态结构来检测恶意软件变种。我们介绍了Monet的设计和实现，它有一个客户端和一个后端服务器模块。客户端模块是用于行为监控和签名生成的轻量级设备内应用程序，我们使用两种新颖的拦截技术来实现这一点。后端服务器负责大规模的恶意软件检测。</t>
+  </si>
+  <si>
+    <t>Monet: a user-oriented behavior-based malware variants detection system for android</t>
+  </si>
+  <si>
+    <t>一种新的基于代码异质性分析的Android重新包装的恶意软件检测技术。</t>
+  </si>
+  <si>
+    <t>Detection of Repackaged Android Malware with Code-Heterogeneity Features</t>
+  </si>
+  <si>
+    <t>Auditing anti-malware tools by evolving android malware and dynamic loading technique</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7837653/</t>
+  </si>
+  <si>
+    <t>http://www.ntu.edu.sg/home/yangliu/publications/journal/tifs_final.pdf</t>
+  </si>
+  <si>
+    <t>ieeexplore.ieee.org</t>
+  </si>
+  <si>
+    <t>10.1109/TIFS.2017.2661723</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Information Forensics and Security</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Genomics,Bioinformatics,Runtime,Loading</t>
+  </si>
+  <si>
+    <t>Although a previous paper shows that existing anti-malware tools (AMTs) may have high detection rate, the report is based on existing malware and thus it does not imply that AMTs can effectively deal with future malware. It is desirable to have an alternative way of auditing AMTs. In our previous paper, we use malware samples from android malware collection Genome to summarize a malware meta-model for modularizing the common attack behaviors and evasion techniques in reusable features. We then combine different features with an evolutionary algorithm, in which way we evolve malware for variants. Previous results have shown that the existing AMTs only exhibit detection rate of 20%-30% for 10 000 evolved malware variants. In this paper, based on the modularized attack features, we apply the dynamic code generation and loading techniques to produce malware, so that we can audit the AMTs at runtime. We implement our approach, named Mystique-S, as a service-oriented malware generation system. Mystique-S automatically selects attack features under various user scenarios and delivers the corresponding malicious payloads at runtime. Relying on dynamic code binding (via service) and loading (via reflection) techniques, Mystique-S enables dynamic execution of payloads on user devices at runtime. Experimental results on real-world devices show that existing AMTs are incapable of detecting most of our generated malware. Last, we propose the enhancements for existing AMTs.</t>
+  </si>
+  <si>
+    <t>恶意代码生成工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测相似应用，抗混淆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semantics-based obfuscation-resilient binary code similarity comparison with applications to software and algorithm plagiarism detection</t>
+  </si>
+  <si>
+    <t>DAPASA，一种通过敏感子图分析来检测Android捎带应用程序的方法</t>
+  </si>
+  <si>
+    <t>DAPASA: detecting android piggybacked apps through sensitive subgraph analysis</t>
+  </si>
+  <si>
+    <t>一种新颖的基于主机的Android设备恶意软件检测系统MADAM，它可以同时分析和关联四个级别的功能：内核，应用程序，用户和软件包，以检测和阻止恶意行为。</t>
+  </si>
+  <si>
+    <t>Madam: Effective and efficient behavior-based android malware detection and prevention</t>
+  </si>
+  <si>
+    <t>Yes, Machine Learning Can Be More Secure! A Case Study on Android Malware Detection</t>
+  </si>
+  <si>
+    <t>提到了一款叫Drebin的安全检测器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Rank Fraud and Malware Detection in Google Play</t>
+  </si>
+  <si>
+    <t>FairPlay，一种新颖的系统，可以发现并利用欺诈者留下的痕迹，检测遭受搜索排名欺诈的恶意软件和应用程序。 需要google市场环境，可以先不测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICCDetector，机器学习识别利用组件间通信的恶意软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICCDetector: ICC-based malware detection on Android</t>
+  </si>
+  <si>
+    <t>Alterdroid，这是一种动态分析方法，用于检测作为应用程序包的一部分分发的隐藏或混淆的恶意软件组件。</t>
+  </si>
+  <si>
+    <t>: Differential Fault Analysis of Obfuscated Smartphone Malware</t>
+  </si>
+  <si>
+    <t>私人信息，并发起攻击活动。在这项研究中，我们提出了一种有效的自动恶意软件检测方法，利用网络流量的文本语义。将每个由移动应用程序生成的HTTP流视为文本文档，可以通过自然语言处理来提取文本文档的特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecting Android Malware Leveraging Text Semantics of Network Flows</t>
+  </si>
+  <si>
+    <t>EC2（Ensemble Clustering and Classification），这是一种用于发现不同规模的Android恶意软件家族的新算法</t>
+  </si>
+  <si>
+    <t>Ec2: Ensemble clustering and classification for predicting android malware families</t>
+  </si>
+  <si>
+    <t>2016-2017A级别会议、期刊论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +875,13 @@
       <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -779,7 +1052,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -836,13 +1109,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -908,33 +1253,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -970,43 +1288,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17" headerRowCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30" headerRowCellStyle="常规">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="论文" dataDxfId="16"/>
-    <tableColumn id="2" name="描述" dataDxfId="15"/>
-    <tableColumn id="3" name="状态" dataDxfId="14"/>
-    <tableColumn id="4" name="备注" dataDxfId="13"/>
+    <tableColumn id="1" name="论文" dataDxfId="29"/>
+    <tableColumn id="2" name="描述" dataDxfId="28"/>
+    <tableColumn id="3" name="状态" dataDxfId="27"/>
+    <tableColumn id="4" name="备注" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H54" totalsRowShown="0" dataDxfId="12">
-  <autoFilter ref="A1:H54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H80" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="A1:H80"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="工具名" dataDxfId="11"/>
-    <tableColumn id="5" name="来源" dataDxfId="10"/>
-    <tableColumn id="2" name="描述" dataDxfId="9"/>
-    <tableColumn id="3" name="状态" dataDxfId="8"/>
-    <tableColumn id="4" name="审查人" dataDxfId="7"/>
-    <tableColumn id="6" name="输入" dataDxfId="6"/>
-    <tableColumn id="7" name="输出" dataDxfId="5"/>
-    <tableColumn id="8" name="主要技术关键字" dataDxfId="4"/>
+    <tableColumn id="1" name="工具名" dataDxfId="20"/>
+    <tableColumn id="5" name="来源" dataDxfId="19"/>
+    <tableColumn id="2" name="描述" dataDxfId="18"/>
+    <tableColumn id="3" name="状态" dataDxfId="17"/>
+    <tableColumn id="4" name="审查人" dataDxfId="16"/>
+    <tableColumn id="6" name="输入" dataDxfId="15"/>
+    <tableColumn id="7" name="输出" dataDxfId="14"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
     <tableColumn id="2" name="描述"/>
     <tableColumn id="3" name="状态"/>
     <tableColumn id="4" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:K3"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="id" dataDxfId="12"/>
+    <tableColumn id="2" name="title" dataDxfId="11"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="10"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="9"/>
+    <tableColumn id="5" name="year" dataDxfId="8"/>
+    <tableColumn id="6" name="include" dataDxfId="7"/>
+    <tableColumn id="7" name="doi" dataDxfId="6"/>
+    <tableColumn id="8" name="published_in" dataDxfId="5"/>
+    <tableColumn id="9" name="keywords" dataDxfId="4"/>
+    <tableColumn id="10" name="abstract" dataDxfId="3"/>
+    <tableColumn id="11" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,19 +1616,19 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1642,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1318,7 +1656,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1346,7 +1684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1696,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -1372,19 +1710,27 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1407,23 +1753,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="43.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1449,7 +1795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1461,7 +1807,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -1487,7 +1833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1501,7 +1847,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>133</v>
@@ -1517,7 +1863,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1531,7 +1877,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1545,7 +1891,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -1557,7 +1903,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -1571,7 +1917,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1585,7 +1931,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1597,7 +1943,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1611,7 +1957,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1625,7 +1971,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1639,7 +1985,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1653,7 +1999,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1667,7 +2013,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -1681,7 +2027,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -1695,7 +2041,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1709,7 +2055,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -1723,7 +2069,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1737,7 +2083,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1751,7 +2097,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -1765,7 +2111,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -1779,7 +2125,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -1793,7 +2139,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -1805,7 +2151,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -1819,7 +2165,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -1833,7 +2179,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -1847,7 +2193,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -1859,7 +2205,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -1873,7 +2219,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -1887,7 +2233,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -1899,7 +2245,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
@@ -1913,7 +2259,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -1927,7 +2273,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -1941,7 +2287,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -1955,7 +2301,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -1969,7 +2315,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -1983,7 +2329,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -1997,7 +2343,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -2011,7 +2357,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2025,7 +2371,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -2039,7 +2385,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -2053,7 +2399,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -2065,7 +2411,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -2079,7 +2425,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -2093,7 +2439,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -2107,7 +2453,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -2121,7 +2467,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -2135,7 +2481,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
@@ -2161,7 +2507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>109</v>
@@ -2175,7 +2521,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>111</v>
@@ -2189,7 +2535,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>117</v>
@@ -2202,6 +2548,374 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,13 +2938,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="61.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2968,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2275,15 +2989,159 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>805</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+    </row>
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>300</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="400">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -822,6 +822,572 @@
   </si>
   <si>
     <t>2016-2017A级别会议、期刊论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FalDroid，这是一款根据病毒分类的Android恶意软件自动分类系统</t>
+  </si>
+  <si>
+    <t>Frequent subgraph based familial classification of android malware</t>
+  </si>
+  <si>
+    <t>Cypider框架，这是一套技术和工具，旨在通过构建恶意应用程序的高效可扩展的相似性网络基础设施来执行系统检测移动恶意软件。</t>
+  </si>
+  <si>
+    <t>Cypider: Building community-based cyber-defense infrastructure for android malware detection</t>
+  </si>
+  <si>
+    <t>IntelliDroid: A Targeted Input Generator for the Dynamic Analysis of Android Malware.</t>
+  </si>
+  <si>
+    <t>动态分析辅助工具，需要与FlowDroid或TaintDroid配合使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidWebView的安全，检测欺诈广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are these Ads Safe: Detecting Hidden Attacks through the Mobile App-Web Interfaces.</t>
+  </si>
+  <si>
+    <t>BidText是一种用于检测敏感数据披露的新型静态技术。</t>
+  </si>
+  <si>
+    <t>Detecting sensitive data disclosure via bi-directional text correlation analysis</t>
+  </si>
+  <si>
+    <t>提出了一个基于确定性符号自动机（DSA）的恶意软件理解，检测和分类的Android恶意软件的精确语义模型。一个名为SMART的自动分析框架，通过检测和总结恶意软件家族的语义克隆来学习DSA，然后从学习的DSA中提取语义特征，根据攻击模式对恶意软件进行分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Semantic modelling of android malware for effective malware comprehension, detection, and classification</t>
+  </si>
+  <si>
+    <t>一种基于信息流分析的手机恶意软件检测技术。 我们的方法检查信息流的结构，以确定它们中存在的行为模式，以及哪些流是相关的，那些共享部分计算路径。</t>
+  </si>
+  <si>
+    <t>Android malware detection using complex-flows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们提出了从UI轨迹中建立的布局组图（LGG）来模拟这些UI行为，并使用LGG作为Android应用程序的胎记进行识别。基于LGG，我们还实施了一个动态重新包装检测工具，RepDroid。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepDroid: an automated tool for Android application repackaging detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种自动检测ANdroid（CLANdroid）中密切关联的应用程序的方法，依靠先进的信息检索技术和五种语义锚：标识符，Android API，意图，权限和传感器。</t>
+  </si>
+  <si>
+    <t>On automatically detecting similar android apps</t>
+  </si>
+  <si>
+    <t>Droid-AntiRM，这是一种自动驯服反分析和改进自动动态分析的新方法。我们的方法利用了三个关键的观察：1）基于逻辑炸弹的反分析技术控制某些恶意行为的执行; 2）反分析技术通常通过条件陈述来实施; 3）反分析技术通常不依赖于程序输入</t>
+  </si>
+  <si>
+    <t>Droid-AntiRM: Taming Control Flow Anti-analysis to Support Automated Dynamic Analysis of Android Malware</t>
+  </si>
+  <si>
+    <t>一种新型的社区推理算法，通过利用社区关系来发现更多的恶意应用程序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understanding the Market-level and Network-level Behaviors of the Android Malware Ecosystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这项研究结合了静态和动态类型的分析，为Android设计一个恶意软件检测系统。 </t>
+  </si>
+  <si>
+    <t>Detection of Android malware: Combined with static analysis and dynamic analysis</t>
+  </si>
+  <si>
+    <t>2016-2017B级别期刊论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2017B级别会议论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个自适应Boost分类器，以仅使用应用程序的元数据来及早识别垃圾邮件应用程序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spam mobile apps: Characteristics, detection, and in the wild analysis</t>
+  </si>
+  <si>
+    <t>提出了一种动态的技术来检测剽窃的应用程序，通过API调用观察应用程序与底层移动平台的交互。</t>
+  </si>
+  <si>
+    <t>Detecting plagiarized mobile apps using API birthmarks</t>
+  </si>
+  <si>
+    <t>AspectDroida-一个离线应用程序级别的混合分析系统，旨在调查Android应用程序可能不需要的活动。</t>
+  </si>
+  <si>
+    <t>Towards a more dependable hybrid analysis of android malware using aspect-oriented programming</t>
+  </si>
+  <si>
+    <t>本文提出了一个名为Dexteroid的静态分析框架，该框架使用反向工程生命周期模型来准确捕捉行为的Android组件。系统地从模型中推导事件序列，并使用它们来检测由事件的特定顺序发起的攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexteroid: Detecting malicious behaviors in Android apps using reverse-engineered life cycle models</t>
+  </si>
+  <si>
+    <t>提出了一种基于代码提取特征的剽窃检测系统</t>
+  </si>
+  <si>
+    <t>A scalable approach for detecting plagiarized mobile applications</t>
+  </si>
+  <si>
+    <t>讨论在实验室验证场景中这样的情况是否为真实环境中恶意软件检测器的性能提供了可靠的指示。</t>
+  </si>
+  <si>
+    <t>Empirical assessment of machine learning-based malware detectors for Android</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10664-014-9352-6</t>
+  </si>
+  <si>
+    <t>https://orbilu.uni.lu/bitstream/10993/20068/1/emse-in_the_lab-vs-in_the_wild.pdf</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>10.1007/s10664-014-9352-6</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering</t>
+  </si>
+  <si>
+    <t>Machine learning,Ten-Fold,Malware,Android</t>
+  </si>
+  <si>
+    <t>To address the issue of malware detection through large sets of applications, researchers have recently started to investigate the capabilities of machine-learning techniques for proposing effective approaches. So far, several promising results were recorded in the literature, many approaches being assessed with what we call in the lab validation scenarios. This paper revisits the purpose of malware detection to discuss whether such in the lab validation scenarios provide reliable indications on the performance of malware detectors in real-world settings, aka in the wild. To this end, we have devised several Machine Learning classifiers that rely on a set of features built from applications’ CFGs. We use a sizeable dataset of over 50 000 Android applications collected from sources where state-of-the art approaches have selected their data. We show that, in the lab, our approach outperforms existing machine learning-based approaches. However, this high performance does not translate in high performance in the wild. The performance gap we observed—F-measures dropping from over 0.9 in the lab to below 0.1 in the wild—raises one important question: How do state-of-the-art approaches perform in the wild?</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KuafuDet，一种两步学习增强的方法，通过对抗检测来学习移动恶意软件。</t>
+  </si>
+  <si>
+    <t>Automated poisoning attacks and defenses in malware detection systems: an adversarial machine learning approach</t>
+  </si>
+  <si>
+    <t>DroidAPIMiner: Mining API-Level Features for Robust Malware Detection in Android</t>
+  </si>
+  <si>
+    <t>过提供健壮和轻量级的分类器来减轻Android恶意软件的安装，上面论文提到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEALANT，一种结合了静态分析和可视化技术的新型工具，它们能够准确识别应用程序间漏洞以及系统可视化</t>
+  </si>
+  <si>
+    <t>SEALANT: a detection and visualization tool for inter-app security vulnerabilities in Android</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3155672</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/a3b6/205099be8a98aef0f2b05328b509420817db.pdf</t>
+  </si>
+  <si>
+    <t>dl.acm.org</t>
+  </si>
+  <si>
+    <t>Automated Software Engineering</t>
+  </si>
+  <si>
+    <t>android,inter-app vulnerability,mobile security,visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android’s flexible communication model allows interactions among third-party apps, but it also leads to inter-app security vulnerabilities. Specifically, malicious apps can eavesdrop on interactions between other apps or exploit the functionality of those apps, which can expose a user’s sensitive information to attackers. While the state-of-the-art tools have focused on detecting inter-app vulnerabilities in Android, they neither accurately analyze realistically large numbers of apps nor effectively deliver the identified issues to users. This paper presents SEALANT, a novel tool that combines static analysis and visualization techniques that, together, enable accurate identification of inter-app vulnerabilities as well as their systematic visualization. SEALANT statically analyzes architectural information of a given set of apps, infers vulnerable communication channels where inter-app attacks can be launched, and visualizes the identified information in a compositional representation. SEALANT has been demonstrated to accurately identify inter-app vulnerabilities from hundreds of real-world Android apps and to effectively deliver the identified information to users. (Demo Video: https://youtu.be/E4lLQonOdUw) </t>
+  </si>
+  <si>
+    <t>一种基于机器学习的Android恶意软件检测系统，可以提供高度准确的分类和高效的敏感数据传输分析方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective detection of android malware based on the usage of data flow APIs and machine learning</t>
+  </si>
+  <si>
+    <t>通过实验评估了两种检测技术Android恶意软件：第一个是基于隐马尔可夫模型，第二个是利用结构熵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An hmm and structural entropy based detector for android malware: An empirical study</t>
+  </si>
+  <si>
+    <t>介绍了现有的威胁分析，情景分析和应用内和分析之间分析工具的详细对比。自称是第一个有关Android应用程序间通信威胁，应用程序共谋和最新检测工具的调查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android inter-app communication threats and detection techniques</t>
+  </si>
+  <si>
+    <t>将网络流量分析与机器学习方法结合起来，以识别恶意网络行为，最终检测恶意应用程序。</t>
+  </si>
+  <si>
+    <t>Machine learning based mobile malware detection using highly imbalanced network traffic</t>
+  </si>
+  <si>
+    <t>提出了一种新型的混合方法进行移动恶意软件检测，采用动态分析和静态分析。</t>
+  </si>
+  <si>
+    <t>A hybrid approach of mobile malware detection in Android</t>
+  </si>
+  <si>
+    <t>设计并实现了用于自动化Android恶意软件检测满足我们确定的实际需求。</t>
+  </si>
+  <si>
+    <t>A pragmatic android malware detection procedure</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167404817301542</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2017.07.013</t>
+  </si>
+  <si>
+    <t>Computers &amp; Security</t>
+  </si>
+  <si>
+    <t>Android,Malware detection,Static analysis,Machine learning,Classification,Ensemble learning,Feature selection</t>
+  </si>
+  <si>
+    <t>The academic security research community has studied the Android malware detection problem extensively. Machine learning methods proposed in previous work typically achieve high reported detection performance on fixed datasets. Some of them also report reasonably fast prediction times. However, most of them are not suitable for real-world deployment because requirements for malware detection go beyond these figures of merit.In this paper, we introduce several important requirements for deploying Android malware detection systems in the real world. One such requirement is that candidate approaches should be tested against a stream of continuously evolving data. Such streams of evolving data represent the continuous flow of unknown file objects received for categorization, and provide more reliable and realistic estimate of detection performance once deployed in a production environment.As a case study we designed and implemented an ensemble approach for automatic Android malware detection that meets the real-world requirements we identified. Atomic Naive Bayes classifiers used as inputs for the Support Vector Machine ensemble are based on different APK feature categories, providing fast speed and additional reliability against the attackers due to diversification. Our case study with several malware families showed that different families are detected by different atomic classifiers. To the best of our knowledge, our work contains the first publicly available results generated against evolving data streams of nearly 1 million samples with a model trained over a massive sample set of 120,000 samples.</t>
+  </si>
+  <si>
+    <t>MUTAFLOW</t>
+  </si>
+  <si>
+    <t>Detecting information flow by mutating input data</t>
+  </si>
+  <si>
+    <t>类似于FlowDroid的工具，做了一些提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估Android Intents（显式和隐式）作为识别恶意应用程序的显着特征的有效性。</t>
+  </si>
+  <si>
+    <t>A static technique for detecting input validation vulnerabilities in Android apps</t>
+  </si>
+  <si>
+    <t>Andro-Dumpsys：利用易失性内存获取功能来进行准确的恶意软件检测和分类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andro-dumpsys: anti-malware system based on the similarity of malware creator and malware centric information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIndroid是第一个使用权限和意图组合来进行准确的恶意软件检测的方案。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIndroid: A novel Android malware detection system using ensemble learning methods</t>
+  </si>
+  <si>
+    <t>本文提出了一个Android恶意软件检测器DroidNative，它使用特定的控制流模式来减少混淆的影响并提供自动化。</t>
+  </si>
+  <si>
+    <t>DroidNative: Automating and optimizing detection of Android native code malware variants</t>
+  </si>
+  <si>
+    <t>Android 安全研究进展</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/html/2016/1/4914.htm</t>
+  </si>
+  <si>
+    <t>jos.org.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用敏感路径识别方法分析安卓应用安全性</t>
+  </si>
+  <si>
+    <t>南大计院的研究哦，可以想办法合作？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向移动应用软件信息泄露的模型检测研究</t>
+  </si>
+  <si>
+    <t>南开的研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个名为CollusionDetector的Android合谋攻击敏感信息泄露检测工具</t>
+  </si>
+  <si>
+    <t>An Improved Android Collusion Attack Detection Method Based on Program Slicing</t>
+  </si>
+  <si>
+    <t>中文论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-2017C级别会议论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DroidOL：有效地检测恶意软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive and scalable android malware detection through online learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 本文提供了一种应用潜在语义索引（LSI）的概念，以查找可疑应用程序是否与恶意软件应用程序相关。</t>
+  </si>
+  <si>
+    <t>Anomalous Android Application Detection with Latent Semantic Indexing</t>
+  </si>
+  <si>
+    <t>证明使用基于语义的特征可以显着提高恶意软件分类器的健壮性。</t>
+  </si>
+  <si>
+    <t>More semantics more robust: Improving android malware classifiers</t>
+  </si>
+  <si>
+    <t>在本文中，我们研究了恶意应用程序的性质和身份，并设计了两种新的检测方法：基于网络的检测和基于系统调用的检测方法。</t>
+  </si>
+  <si>
+    <t>Behavioral malware detection approaches for Android</t>
+  </si>
+  <si>
+    <t>目前最全面的Android安全工具清单</t>
+  </si>
+  <si>
+    <t>http://www.ctocio.com/top%E6%B8%85%E5%8D%95/23912.html</t>
+  </si>
+  <si>
+    <t>APK Auditor: Permission-based Android malware detection system</t>
+  </si>
+  <si>
+    <t>R-PackDroid，一种用于检测Android勒索软件的机器学习系统。</t>
+  </si>
+  <si>
+    <t>R-PackDroid: API package-based characterization and detection of mobile ransomware</t>
+  </si>
+  <si>
+    <t>在本文中，我们应用了包括完全连接，卷积和循环神经网络以及自动编码器和深层信念网络在内的多种深度学习模型，以从大于55 GB的Android恶意软件的大规模数据集中检测Android恶意软件。</t>
+  </si>
+  <si>
+    <t>Deep neural architectures for large scale android malware analysis</t>
+  </si>
+  <si>
+    <t>本文提供了一个基于权限的Android恶意软件检测系统，APK Auditor使用静态分析将Android应用程序描述为良性或恶意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们提出DeepFlow，这是一种基于深度学习的新方法，可直接从Android应用程序中的数据流中识别恶意软件。</t>
+  </si>
+  <si>
+    <t>DeepFlow: Deep learning-based malware detection by mining Android application for abnormal usage of sensitive data</t>
+  </si>
+  <si>
+    <t>Euphony可以精确地标记恶意软件，并且可以通过精细的聚类来提供具有竞争力的性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euphony: harmonious unification of cacophonous anti-virus vendor labels for Android malware</t>
+  </si>
+  <si>
+    <t>根据它们的动态行为对Android恶意软件进行分组和分析，并识别恶意软件的行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior grouping of Android malware family</t>
+  </si>
+  <si>
+    <t>本文提出了一种新的混合方法，可以找到比现有的静态或动态方法更多的私人数据泄漏。这个方法是在一个名为HybriDroid的工具中实现的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HybriDroid</t>
+  </si>
+  <si>
+    <t>Automatic privacy leakage detection for massive android apps via a novel hybrid approach</t>
+  </si>
+  <si>
+    <t>eDSDroid</t>
+  </si>
+  <si>
+    <t>eDSDroid：结合静态和动态分析来检测由于多个应用程序的协调行为而导致的信息泄漏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancing the accuracy of static analysis for detecting sensitive data leakage in Android by using dynamic analysis</t>
+  </si>
+  <si>
+    <t>uitHyDroid：用混合分析通过多应用检测敏感数据泄漏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uitHyDroid</t>
+  </si>
+  <si>
+    <t>Detecting sensitive data leakage via inter-applications on Android using a hybrid analysis technique</t>
+  </si>
+  <si>
+    <t>Android Malware Detection Method Based on Function Call Graphs</t>
+  </si>
+  <si>
+    <t>从函数调用图中提取android应用程序的结构特征，然后利用结构特征构建分类器对恶意软件进行分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先，针对未知的未知检测样本权限，为提高Android的检测率，提出了一种基于改进朴素贝叶斯的恶意检测算法。</t>
+  </si>
+  <si>
+    <t>Android malware detection method based on naive Bayes and permission correlation algorithm</t>
+  </si>
+  <si>
+    <t>EmuProtect：一个基于行为比较分析的Android恶意软件检测方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Android Malware Detection System Based on Behavior Comparison Analysis</t>
+  </si>
+  <si>
+    <t>本研究在虚拟环境下，利用单一物理机，提出并实现了Android恶意软件检测技术。</t>
+  </si>
+  <si>
+    <t>A study of android malware detection techniques in virtual environment</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>基于简单而有效的动态分析方法的MobileAppScrutinator，该方法适用于Android和iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileAppScrutinator: A Simple yet Efficient Dynamic Analysis Approach for Detecting Privacy Leaks across Mobile OSs</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKLDroid，系统地集成了应用程序的多个视图来执行全面的恶意软件检测和恶意代码本地化</t>
+  </si>
+  <si>
+    <t>A Multi-view Context-aware Approach to Android Malware Detection and Malicious Code Localization</t>
+  </si>
+  <si>
+    <t>Context-aware, Adaptive and Scalable Android Malware Detection through Online Learning (extended version)</t>
+  </si>
+  <si>
+    <t>我们解决了恶意软件种群漂移的问题，并提出了一个新颖的在线学习框架来检测恶意软件，名为CASANDRA（Contextaware，自适应和可扩展ANDRoid恶意软件检测器）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaMaDroid，一个基于静态分析的系统，将应用程序的API调用抽象为他们的类，包或家族，并从应用程序的调用图中获得的序列建立一个模型作为马尔可夫链。</t>
+  </si>
+  <si>
+    <t>MaMaDroid: Detecting Android Malware by Building Markov Chains of Behavioral Models (Extended Version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提出了一种从极少数恶意软件样本中自动学习Android语义恶意软件签名的技术。 </t>
+  </si>
+  <si>
+    <t>Automated Synthesis of Semantic Malware Signatures using Maximum Satisfiability</t>
+  </si>
+  <si>
+    <t>Hardening Malware Detection Systems Against Cyber Maneuvers: An Adversarial Machine Learning Approach</t>
+  </si>
+  <si>
+    <t>FrauDroid，一种基于用户界面（UI）状态转换图和网络流量来检测广告欺诈的新方法。</t>
+  </si>
+  <si>
+    <t>FrauDroid: An Accurate and Scalable Approach to Automated Mobile Ad Fraud Detection</t>
+  </si>
+  <si>
+    <t>提出了一种检测应用程序之间潜在合谋的方法。</t>
+  </si>
+  <si>
+    <t>Detection of App Collusion Potential Using Logic Programming</t>
+  </si>
+  <si>
+    <t>我们提出ServiceMonitor，一种轻量级的基于主机的检测系统，可以直接在移动设备上动态检测恶意应用程序。</t>
+  </si>
+  <si>
+    <t>Android Malware Detection using Markov Chain Model of Application Behaviors in Requesting System Services</t>
+  </si>
+  <si>
+    <t>Android恶意软件检测器DroidNative</t>
+  </si>
+  <si>
+    <t>DroidNative: Semantic-Based Detection of Android Native Code Malware</t>
+  </si>
+  <si>
+    <t>一种基于n-gram操作码特征的方法，该方法利用机器学习来识别和分类Android恶意软件。</t>
+  </si>
+  <si>
+    <t>N-gram Opcode Analysis for Android Malware Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 作为应用程序，我们将展示这些模型如何帮助确定未知恶意软件应用程序是否更有可能是有害或广告软件类型。</t>
+  </si>
+  <si>
+    <t>On labeling Android malware signatures using minhashing and further classification with Structural Equation Models</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1709.04186</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1709.04186</t>
+  </si>
+  <si>
+    <t>arxiv.org</t>
+  </si>
+  <si>
+    <t>Multi-scanner Antivirus systems provide insightful information on the nature of a suspect application; however there is often a lack of consensus and consistency between different Anti-Virus engines. In this article, we analyze more than 250 thousand malware signatures generated by 61 different Anti-Virus engines after analyzing 82 thousand different Android malware applications. We identify 41 different malware classes grouped into three major categories, namely Adware, Harmful Threats and Unknown or Generic signatures. We further investigate the relationships between such 41 classes using community detection algorithms from graph theory to identify similarities between them; and we finally propose a Structure Equation Model to identify which Anti-Virus engines are more powerful at detecting each macro-category. As an application, we show how such models can help in identifying whether Unknown malware applications are more likely to be of Harmful or Adware type.</t>
+  </si>
+  <si>
+    <t>Andro-profiler: 一个基于混合行为的移动恶意软件分析和分类系统来为移动安全防御姿态做出贡献。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andro-profiler: Detecting and Classifying Android Malware based on Behavioral Profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系（e-mail）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文远</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,7 +1476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1044,6 +1610,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1052,7 +1633,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1115,19 +1696,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1162,31 +1740,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1253,6 +1810,36 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1288,37 +1875,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="30" headerRowCellStyle="常规">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31" headerRowCellStyle="常规">
   <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="论文" dataDxfId="29"/>
-    <tableColumn id="2" name="描述" dataDxfId="28"/>
-    <tableColumn id="3" name="状态" dataDxfId="27"/>
-    <tableColumn id="4" name="备注" dataDxfId="26"/>
+    <tableColumn id="1" name="论文" dataDxfId="30"/>
+    <tableColumn id="2" name="描述" dataDxfId="29"/>
+    <tableColumn id="3" name="状态" dataDxfId="28"/>
+    <tableColumn id="4" name="备注" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H80" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="A1:H80"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="工具名" dataDxfId="20"/>
-    <tableColumn id="5" name="来源" dataDxfId="19"/>
-    <tableColumn id="2" name="描述" dataDxfId="18"/>
-    <tableColumn id="3" name="状态" dataDxfId="17"/>
-    <tableColumn id="4" name="审查人" dataDxfId="16"/>
-    <tableColumn id="6" name="输入" dataDxfId="15"/>
-    <tableColumn id="7" name="输出" dataDxfId="14"/>
-    <tableColumn id="8" name="主要技术关键字" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I148" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:I148"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="工具名" dataDxfId="25"/>
+    <tableColumn id="5" name="来源" dataDxfId="24"/>
+    <tableColumn id="2" name="描述" dataDxfId="23"/>
+    <tableColumn id="3" name="状态" dataDxfId="22"/>
+    <tableColumn id="4" name="审查人" dataDxfId="21"/>
+    <tableColumn id="6" name="输入" dataDxfId="20"/>
+    <tableColumn id="7" name="输出" dataDxfId="19"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="18"/>
+    <tableColumn id="9" name="联系（e-mail）" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1331,19 +1919,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K9"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id" dataDxfId="12"/>
-    <tableColumn id="2" name="title" dataDxfId="11"/>
-    <tableColumn id="3" name="inc_url" dataDxfId="10"/>
-    <tableColumn id="4" name="pdf_url" dataDxfId="9"/>
-    <tableColumn id="5" name="year" dataDxfId="8"/>
-    <tableColumn id="6" name="include" dataDxfId="7"/>
-    <tableColumn id="7" name="doi" dataDxfId="6"/>
-    <tableColumn id="8" name="published_in" dataDxfId="5"/>
-    <tableColumn id="9" name="keywords" dataDxfId="4"/>
-    <tableColumn id="10" name="abstract" dataDxfId="3"/>
+    <tableColumn id="1" name="id" dataDxfId="10"/>
+    <tableColumn id="2" name="title" dataDxfId="9"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="8"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="7"/>
+    <tableColumn id="5" name="year" dataDxfId="6"/>
+    <tableColumn id="6" name="include" dataDxfId="5"/>
+    <tableColumn id="7" name="doi" dataDxfId="4"/>
+    <tableColumn id="8" name="published_in" dataDxfId="3"/>
+    <tableColumn id="9" name="keywords" dataDxfId="2"/>
+    <tableColumn id="10" name="abstract" dataDxfId="1"/>
     <tableColumn id="11" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1616,7 +2204,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1753,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1766,10 +2354,11 @@
     <col min="3" max="3" width="43.25" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -1794,8 +2383,11 @@
       <c r="H1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1806,8 +2398,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>139</v>
       </c>
@@ -1832,8 +2425,9 @@
       <c r="H3" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1846,8 +2440,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>133</v>
@@ -1862,8 +2457,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1876,8 +2472,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1890,8 +2487,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -1902,8 +2500,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -1916,8 +2515,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1930,8 +2530,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1942,8 +2543,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1956,8 +2558,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1970,8 +2573,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1984,8 +2588,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1998,8 +2603,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -2012,8 +2618,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2026,8 +2633,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -2040,8 +2648,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -2054,8 +2663,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2068,8 +2678,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2082,8 +2693,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -2096,8 +2708,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -2110,8 +2723,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2124,8 +2738,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -2138,8 +2753,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2150,8 +2766,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2164,8 +2781,9 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2178,8 +2796,9 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2192,8 +2811,9 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -2204,8 +2824,9 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2218,8 +2839,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -2232,8 +2854,9 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2244,8 +2867,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
@@ -2258,8 +2882,9 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -2272,8 +2897,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -2286,8 +2912,9 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -2300,8 +2927,9 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -2314,8 +2942,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -2328,8 +2957,9 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -2342,8 +2972,9 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -2356,8 +2987,9 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2370,8 +3002,9 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -2384,8 +3017,9 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -2398,8 +3032,9 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -2410,8 +3045,9 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -2424,8 +3060,9 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -2438,8 +3075,9 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -2452,8 +3090,9 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -2466,8 +3105,9 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -2480,8 +3120,9 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
@@ -2506,8 +3147,9 @@
       <c r="H51" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>109</v>
@@ -2520,8 +3162,9 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>111</v>
@@ -2534,8 +3177,9 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>117</v>
@@ -2548,8 +3192,9 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>145</v>
       </c>
@@ -2560,12 +3205,15 @@
       <c r="D55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>225</v>
@@ -2576,8 +3224,9 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>148</v>
@@ -2586,12 +3235,15 @@
         <v>147</v>
       </c>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>150</v>
@@ -2600,12 +3252,15 @@
         <v>149</v>
       </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>152</v>
@@ -2614,12 +3269,15 @@
         <v>151</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>154</v>
@@ -2628,12 +3286,15 @@
         <v>153</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>156</v>
@@ -2642,12 +3303,15 @@
         <v>155</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>162</v>
       </c>
@@ -2660,12 +3324,15 @@
       <c r="D62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>161</v>
@@ -2674,12 +3341,15 @@
         <v>159</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>164</v>
@@ -2688,12 +3358,15 @@
         <v>163</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>166</v>
@@ -2702,12 +3375,15 @@
         <v>165</v>
       </c>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>168</v>
@@ -2716,12 +3392,15 @@
         <v>167</v>
       </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>186</v>
@@ -2730,12 +3409,15 @@
         <v>185</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>188</v>
@@ -2744,12 +3426,15 @@
         <v>187</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>192</v>
@@ -2758,12 +3443,15 @@
         <v>191</v>
       </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>194</v>
@@ -2772,12 +3460,15 @@
         <v>193</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>196</v>
@@ -2786,12 +3477,15 @@
         <v>195</v>
       </c>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>208</v>
@@ -2800,12 +3494,15 @@
         <v>207</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>210</v>
@@ -2814,12 +3511,15 @@
         <v>209</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>212</v>
@@ -2828,12 +3528,15 @@
         <v>211</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>213</v>
@@ -2842,12 +3545,15 @@
         <v>214</v>
       </c>
       <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>215</v>
@@ -2856,12 +3562,15 @@
         <v>216</v>
       </c>
       <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>218</v>
@@ -2870,12 +3579,15 @@
         <v>217</v>
       </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>220</v>
@@ -2884,12 +3596,15 @@
         <v>219</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>222</v>
@@ -2898,12 +3613,15 @@
         <v>221</v>
       </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
         <v>224</v>
@@ -2912,10 +3630,1158 @@
         <v>223</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+      <c r="B146" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>394</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2989,17 +4855,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU3"/>
+  <dimension ref="A1:AU9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,7 +4905,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="23" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="23">
         <v>805</v>
       </c>
@@ -3102,7 +4970,7 @@
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" s="23" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>300</v>
       </c>
@@ -3135,6 +5003,175 @@
       </c>
       <c r="K3" s="22" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>589</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>625</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>952</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>222</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>706</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="231">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,9 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为,</t>
-  </si>
-  <si>
     <t>检测应用程序访问私有标识符推断安全风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -822,6 +819,31 @@
   </si>
   <si>
     <t>2016-2017A级别会议、期刊论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPIC（方法，非工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应用程序的描述是否有误导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题建模、信息安全、文字挖掘、机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无工具Email: yyang57@utk.edu
+fjysun, berryg@eecs.utk.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为。主要方法流程：通过应用程序的描述会学习产生一个应用程序的类别Da，通过权限文件也会学习出一个应用程序的类别Pa，而应用程序本身会有一个开发者给出的类别Ca，之后会通过一定的方法比较这三种类别，从而得出该应用程序的描述文件是否有误导行为。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,12 +1148,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1162,31 +1178,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1253,6 +1248,33 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1301,24 +1323,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H80" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H80" totalsRowShown="0" dataDxfId="25">
   <autoFilter ref="A1:H80"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="工具名" dataDxfId="20"/>
-    <tableColumn id="5" name="来源" dataDxfId="19"/>
-    <tableColumn id="2" name="描述" dataDxfId="18"/>
-    <tableColumn id="3" name="状态" dataDxfId="17"/>
-    <tableColumn id="4" name="审查人" dataDxfId="16"/>
-    <tableColumn id="6" name="输入" dataDxfId="15"/>
-    <tableColumn id="7" name="输出" dataDxfId="14"/>
-    <tableColumn id="8" name="主要技术关键字" dataDxfId="13"/>
+    <tableColumn id="1" name="工具名" dataDxfId="24"/>
+    <tableColumn id="5" name="来源" dataDxfId="23"/>
+    <tableColumn id="2" name="描述" dataDxfId="22"/>
+    <tableColumn id="3" name="状态" dataDxfId="21"/>
+    <tableColumn id="4" name="审查人" dataDxfId="20"/>
+    <tableColumn id="6" name="输入" dataDxfId="19"/>
+    <tableColumn id="7" name="输出" dataDxfId="18"/>
+    <tableColumn id="8" name="主要技术关键字" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="论文"/>
@@ -1331,19 +1353,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K3"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id" dataDxfId="12"/>
-    <tableColumn id="2" name="title" dataDxfId="11"/>
-    <tableColumn id="3" name="inc_url" dataDxfId="10"/>
-    <tableColumn id="4" name="pdf_url" dataDxfId="9"/>
-    <tableColumn id="5" name="year" dataDxfId="8"/>
-    <tableColumn id="6" name="include" dataDxfId="7"/>
-    <tableColumn id="7" name="doi" dataDxfId="6"/>
-    <tableColumn id="8" name="published_in" dataDxfId="5"/>
-    <tableColumn id="9" name="keywords" dataDxfId="4"/>
-    <tableColumn id="10" name="abstract" dataDxfId="3"/>
+    <tableColumn id="1" name="id" dataDxfId="10"/>
+    <tableColumn id="2" name="title" dataDxfId="9"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="8"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="7"/>
+    <tableColumn id="5" name="year" dataDxfId="6"/>
+    <tableColumn id="6" name="include" dataDxfId="5"/>
+    <tableColumn id="7" name="doi" dataDxfId="4"/>
+    <tableColumn id="8" name="published_in" dataDxfId="3"/>
+    <tableColumn id="9" name="keywords" dataDxfId="2"/>
+    <tableColumn id="10" name="abstract" dataDxfId="1"/>
     <tableColumn id="11" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1619,16 +1641,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,55 +1658,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1692,45 +1714,45 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1755,47 +1777,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -1807,9 +1829,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1818,22 +1840,22 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1847,23 +1869,33 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1877,7 +1909,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1891,7 +1923,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -1903,7 +1935,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -1917,7 +1949,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -1931,7 +1963,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -1943,7 +1975,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1957,7 +1989,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1971,7 +2003,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1985,7 +2017,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1999,7 +2031,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -2013,7 +2045,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2027,7 +2059,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -2041,7 +2073,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -2055,7 +2087,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2069,7 +2101,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2083,7 +2115,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -2097,7 +2129,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -2111,7 +2143,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2125,7 +2157,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -2139,7 +2171,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2151,7 +2183,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2165,7 +2197,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2179,7 +2211,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2193,7 +2225,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -2205,7 +2237,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2219,7 +2251,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -2233,7 +2265,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2245,13 +2277,13 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2259,7 +2291,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -2273,7 +2305,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -2287,7 +2319,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -2301,7 +2333,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -2315,7 +2347,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -2329,7 +2361,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -2343,7 +2375,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -2357,7 +2389,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -2371,7 +2403,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -2385,7 +2417,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -2399,7 +2431,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -2411,7 +2443,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -2425,7 +2457,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -2439,7 +2471,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -2453,7 +2485,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -2467,7 +2499,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -2481,39 +2513,39 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2521,13 +2553,13 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2535,13 +2567,13 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2549,26 +2581,26 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2577,13 +2609,13 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2591,13 +2623,13 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2605,13 +2637,13 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2619,13 +2651,13 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2633,13 +2665,13 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2647,31 +2679,31 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2679,13 +2711,13 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2693,13 +2725,13 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2707,13 +2739,13 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2721,13 +2753,13 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2735,13 +2767,13 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2749,13 +2781,13 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2763,13 +2795,13 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2777,13 +2809,13 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2791,13 +2823,13 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2805,13 +2837,13 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2819,13 +2851,13 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2833,13 +2865,13 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2847,13 +2879,13 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2861,13 +2893,13 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2875,13 +2907,13 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2889,13 +2921,13 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="69" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2903,13 +2935,13 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2938,13 +2970,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2952,13 +2984,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -2968,7 +3000,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2995,74 +3027,74 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="23" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>805</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="22">
         <v>2017</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -3102,39 +3134,39 @@
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" s="23" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>300</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="E3" s="22">
         <v>2017</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20592" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="406">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,9 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为,</t>
-  </si>
-  <si>
     <t>检测应用程序访问私有标识符推断安全风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1388,6 +1385,35 @@
   </si>
   <si>
     <t>徐文远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPIC（方法，非工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为。主要方法流程：通过应用程序的描述会学习产生一个应用程序的类别Da，通过权限文件也会学习出一个应用程序的类别Pa，而应用程序本身会有一个开发者给出的类别Ca，之后会通过一定的方法比较这三种类别，从而得出该应用程序的描述文件是否有误导行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应用程序的描述是否有误导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题建模、LDA&amp;PLDA、信息安全、文字挖掘、机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> yyang57@utk.edu
+{fjysun, berryg}@eecs.utk.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,16 +2233,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2224,55 +2250,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2280,45 +2306,45 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2343,51 +2369,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -2400,9 +2426,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2411,23 +2437,23 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2442,24 +2468,36 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -2474,7 +2512,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -2489,7 +2527,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -2502,7 +2540,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -2517,7 +2555,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -2532,7 +2570,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -2545,7 +2583,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -2560,7 +2598,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -2575,7 +2613,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -2590,7 +2628,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -2605,7 +2643,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -2620,7 +2658,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2635,7 +2673,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -2650,7 +2688,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -2665,7 +2703,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2680,7 +2718,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2695,7 +2733,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -2710,7 +2748,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -2725,7 +2763,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2740,7 +2778,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -2755,7 +2793,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2768,7 +2806,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2783,7 +2821,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2798,7 +2836,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2813,7 +2851,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -2826,7 +2864,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2841,7 +2879,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -2856,7 +2894,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2869,13 +2907,13 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2884,7 +2922,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -2899,7 +2937,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -2914,7 +2952,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -2929,7 +2967,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -2944,7 +2982,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -2959,7 +2997,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -2974,7 +3012,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -2989,7 +3027,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -3004,7 +3042,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -3019,7 +3057,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -3034,7 +3072,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -3047,7 +3085,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -3062,7 +3100,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -3077,7 +3115,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -3092,7 +3130,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -3107,7 +3145,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -3122,40 +3160,40 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3164,13 +3202,13 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3179,13 +3217,13 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3194,29 +3232,29 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3226,422 +3264,422 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3651,214 +3689,214 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
@@ -3868,301 +3906,301 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="C107" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4172,44 +4210,44 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4219,322 +4257,322 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B127" s="22" t="s">
-        <v>348</v>
-      </c>
       <c r="C127" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B129" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="B129" s="22" t="s">
-        <v>354</v>
-      </c>
       <c r="C129" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4544,231 +4582,231 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4778,9 +4816,9 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4804,13 +4842,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4818,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -4834,7 +4872,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -4861,76 +4899,76 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="23" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>805</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>170</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="22">
         <v>2017</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -4970,171 +5008,171 @@
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" s="23" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>300</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="E3" s="22">
         <v>2017</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>589</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>264</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="E4" s="22">
         <v>2016</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>270</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>625</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="E5" s="22">
         <v>2017</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>282</v>
-      </c>
       <c r="K5" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>952</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>295</v>
-      </c>
       <c r="D6" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="22">
         <v>2017</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>300</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>222</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="D7" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="23">
         <v>2016</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -5143,35 +5181,35 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="207" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>706</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>389</v>
       </c>
       <c r="E9" s="22">
         <v>2017</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="417">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请房老师发邮件要数据，具体请参见：https://androzoo.uni.lu/access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请房老师发邮件要数据，具体请参见：https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正在拉取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,18 +594,10 @@
     <t>Libradar: Fast and accurate detection of third-party libraries in android apps</t>
   </si>
   <si>
-    <t>通过引入流式机器学习型MD框架StormDroid解决了恶意软件检测（MD）问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stormdroid: A streaminglized machine learning-based system for detecting android malware</t>
   </si>
   <si>
     <t>该系统生成用于检测Android恶意软件的功能集。我们使用这些功能在良性和恶意应用程序的大型数据集上训练分类器。这个分类器的真正的正确率达到了92.5％，只有1％的误报率</t>
-  </si>
-  <si>
-    <t>需优先测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Featuresmith: Automatically engineering features for malware detection by mining the security literature</t>
@@ -1367,19 +1351,77 @@
     <t>Andro-profiler: Detecting and Classifying Android Malware based on Behavioral Profiles</t>
   </si>
   <si>
+    <t>联系（e-mail）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龚爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者自称不靠谱，删项目了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要程序ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过引入流式机器学习型MD框架StormDroid解决了恶意软件检测（MD）问题，华师大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecnuchensen@gmail.com, minhuixue@nyu.edu, ellison.tang@gmail.com, lhxu@cs.ecnu.edu.cn, zhu-hj@cs.sjtu.edu.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yanick@cs.ucsb.edu, antoniob@cs.ucsb.edu, chris@cs.ucsb.edu, vigna@cs.ucsb.edu, wkr@ccs.neu.edu, ek@ccs.neu.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://akana.mobiseclab.org/index.jsp?type=history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lab.mobisec@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经发索要邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库，需要向开发者需要注册邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mobiseclab.org/eacus.jsp</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系（e-mail）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋燕</t>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eacus</t>
+  </si>
+  <si>
+    <t>简单的恶意软件测试工具，Akana 的前身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1387,8 +1429,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐文远</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测报告（有风险等级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒库， 启发式检查，反混淆，权限检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://akana.mobiseclab.org/index.jsp</t>
+  </si>
+  <si>
+    <t>akana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akana是一款针对android应用程序分析的交互式分析环境（IAE），是专业用户对Android应用程序进行洞察分析的AIO工具。</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1610,21 +1674,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1633,7 +1682,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1696,7 +1745,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1888,8 +1947,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I148" totalsRowShown="0" dataDxfId="26">
-  <autoFilter ref="A1:I148"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I151" totalsRowShown="0" dataDxfId="26">
+  <autoFilter ref="A1:I151"/>
   <tableColumns count="9">
     <tableColumn id="1" name="工具名" dataDxfId="25"/>
     <tableColumn id="5" name="来源" dataDxfId="24"/>
@@ -2204,7 +2263,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,13 +2294,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -2252,7 +2311,7 @@
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>105</v>
@@ -2266,10 +2325,10 @@
         <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>402</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -2280,7 +2339,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -2292,18 +2351,29 @@
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2330,21 +2400,22 @@
     <hyperlink ref="A5" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,15 +2426,15 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="32" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2372,19 +2443,19 @@
         <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" t="s">
-        <v>395</v>
+        <v>132</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2402,7 +2473,7 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2411,19 +2482,19 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -2445,14 +2516,14 @@
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3124,28 +3195,28 @@
     </row>
     <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I51" s="3"/>
     </row>
@@ -3182,10 +3253,10 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3194,19 +3265,19 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>160</v>
+        <v>395</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -3216,7 +3287,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3229,65 +3300,69 @@
     <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>396</v>
+      </c>
       <c r="E59" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -3297,52 +3372,54 @@
     <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="25" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -3352,14 +3429,14 @@
     <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -3369,14 +3446,14 @@
     <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -3386,14 +3463,14 @@
     <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -3403,14 +3480,14 @@
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3420,14 +3497,14 @@
     <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3437,14 +3514,14 @@
     <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3454,14 +3531,14 @@
     <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3471,14 +3548,14 @@
     <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3488,14 +3565,14 @@
     <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3505,14 +3582,14 @@
     <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3522,14 +3599,14 @@
     <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3539,14 +3616,14 @@
     <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3556,14 +3633,14 @@
     <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3573,14 +3650,14 @@
     <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3590,14 +3667,14 @@
     <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3607,14 +3684,14 @@
     <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3624,14 +3701,14 @@
     <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3641,7 +3718,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3654,14 +3731,14 @@
     <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3671,14 +3748,14 @@
     <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3688,14 +3765,14 @@
     <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3705,14 +3782,14 @@
     <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3722,14 +3799,14 @@
     <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3739,14 +3816,14 @@
     <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -3756,14 +3833,14 @@
     <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3773,14 +3850,14 @@
     <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -3790,14 +3867,14 @@
     <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -3807,14 +3884,14 @@
     <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3824,14 +3901,14 @@
     <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3841,14 +3918,14 @@
     <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3858,7 +3935,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
@@ -3871,14 +3948,14 @@
     <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3888,14 +3965,14 @@
     <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3905,14 +3982,14 @@
     <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -3922,14 +3999,14 @@
     <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -3939,14 +4016,14 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -3956,14 +4033,14 @@
     <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -3973,14 +4050,14 @@
     <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -3990,14 +4067,14 @@
     <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4007,14 +4084,14 @@
     <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4024,14 +4101,14 @@
     <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4041,14 +4118,14 @@
     <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4058,14 +4135,14 @@
     <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4074,17 +4151,17 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4094,14 +4171,14 @@
     <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="22" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4111,14 +4188,14 @@
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="22" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4128,14 +4205,14 @@
     <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4145,14 +4222,14 @@
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4162,7 +4239,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4175,14 +4252,14 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4192,14 +4269,14 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -4209,7 +4286,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4222,14 +4299,14 @@
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -4239,14 +4316,14 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="22" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -4256,14 +4333,14 @@
     <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4273,14 +4350,14 @@
     <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4290,14 +4367,14 @@
     <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4307,14 +4384,14 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4324,14 +4401,14 @@
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="22" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4341,14 +4418,14 @@
     <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="22" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4358,14 +4435,14 @@
     <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="22" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4375,14 +4452,14 @@
     <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -4392,14 +4469,14 @@
     <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4408,17 +4485,17 @@
     </row>
     <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -4427,17 +4504,17 @@
     </row>
     <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -4446,17 +4523,17 @@
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -4466,14 +4543,14 @@
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -4483,14 +4560,14 @@
     <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -4500,14 +4577,14 @@
     <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -4517,14 +4594,14 @@
     <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -4534,7 +4611,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4547,14 +4624,14 @@
     <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -4564,14 +4641,14 @@
     <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="22" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -4581,14 +4658,14 @@
     <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -4598,14 +4675,14 @@
     <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -4615,14 +4692,14 @@
     <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="22" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -4632,14 +4709,14 @@
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="22" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -4649,14 +4726,14 @@
     <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="22" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -4666,14 +4743,14 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="22" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4683,14 +4760,14 @@
     <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="22" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -4700,14 +4777,14 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -4717,14 +4794,14 @@
     <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -4734,31 +4811,31 @@
     <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
-      <c r="B147" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="C147" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3" t="s">
-        <v>396</v>
+      <c r="B147" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -4767,8 +4844,8 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
-      <c r="B148" s="3" t="s">
-        <v>394</v>
+      <c r="B148" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4778,20 +4855,83 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D149" t="s">
-        <v>394</v>
+    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F149" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="G149" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="H149" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="I149" s="27"/>
+    </row>
+    <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B51" r:id="rId1"/>
+    <hyperlink ref="I62" r:id="rId2" display="ecnuchensen@gmail.com,minhuixue@nyu.edu；"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4872,37 +5012,37 @@
   <sheetData>
     <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>184</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="23" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
@@ -4910,27 +5050,27 @@
         <v>805</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E2" s="22">
         <v>2017</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -4975,34 +5115,34 @@
         <v>300</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3" s="22">
         <v>2017</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
@@ -5010,34 +5150,34 @@
         <v>589</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E4" s="22">
         <v>2016</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>270</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
@@ -5045,32 +5185,32 @@
         <v>625</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E5" s="22">
         <v>2017</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
@@ -5078,34 +5218,34 @@
         <v>952</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E6" s="22">
         <v>2017</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>300</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -5113,19 +5253,19 @@
         <v>222</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E7" s="23">
         <v>2016</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -5134,7 +5274,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -5148,30 +5288,30 @@
         <v>706</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E9" s="22">
         <v>2017</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="424">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,9 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为,</t>
-  </si>
-  <si>
     <t>检测应用程序访问私有标识符推断安全风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,10 +541,6 @@
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋燕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1453,6 +1446,43 @@
   </si>
   <si>
     <t>Akana是一款针对android应用程序分析的交互式分析环境（IAE），是专业用户对Android应用程序进行洞察分析的AIO工具。</t>
+  </si>
+  <si>
+    <t>APPIC（方法，非工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPIC: 描述文件+自然语言提取+权限识别是否有误导行为。主要方法流程：通过应用程序的描述会学习产生一个应用程序的类别Da，通过权限文件也会学习出一个应用程序的类别Pa，而应用程序本身会有一个开发者给出的类别Ca，之后会通过一定的方法比较这三种类别，从而得出该应用程序的描述文件是否有误导行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该应用程序的描述是否有误导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题建模、LDA&amp;PLDA、信息安全、文字挖掘、机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> yyang57@utk.edu
+{fjysun, berryg}@eecs.utk.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LibD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本报告（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2266,16 +2296,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2283,55 +2313,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2339,56 +2369,56 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2414,51 +2444,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="32" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -2471,9 +2501,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -2482,23 +2512,23 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2513,24 +2543,36 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>416</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -2545,7 +2587,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -2560,7 +2602,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -2573,7 +2615,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -2588,7 +2630,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -2603,7 +2645,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -2616,7 +2658,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -2631,7 +2673,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -2646,7 +2688,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -2661,7 +2703,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -2676,7 +2718,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -2691,7 +2733,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2706,7 +2748,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -2721,7 +2763,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -2736,7 +2778,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2751,7 +2793,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2766,7 +2808,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -2781,7 +2823,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -2796,7 +2838,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2811,7 +2853,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -2826,7 +2868,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2839,7 +2881,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2854,7 +2896,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2869,7 +2911,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2884,7 +2926,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -2897,7 +2939,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2912,7 +2954,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -2927,7 +2969,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2940,13 +2982,13 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2955,7 +2997,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -2970,7 +3012,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -2985,7 +3027,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -3000,7 +3042,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -3015,7 +3057,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -3030,7 +3072,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -3045,7 +3087,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -3060,7 +3102,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -3075,7 +3117,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -3090,7 +3132,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -3105,7 +3147,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -3118,7 +3160,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -3133,7 +3175,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -3148,7 +3190,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -3163,7 +3205,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -3178,7 +3220,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -3193,40 +3235,40 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3235,13 +3277,13 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3250,13 +3292,13 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3265,29 +3307,29 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3297,428 +3339,434 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+    <row r="58" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="B58" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+        <v>390</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>423</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3728,214 +3776,214 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
@@ -3945,301 +3993,301 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="B107" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4249,44 +4297,44 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4296,322 +4344,322 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="22" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="22" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>347</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4621,231 +4669,231 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4855,42 +4903,42 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="D149" s="3" t="s">
+      <c r="F149" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G149" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F149" s="27" t="s">
+      <c r="H149" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="G149" s="27" t="s">
+      <c r="I149" s="27"/>
+    </row>
+    <row r="150" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H149" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="I149" s="27"/>
-    </row>
-    <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4899,10 +4947,10 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4912,14 +4960,14 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -4944,13 +4992,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4958,13 +5006,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -4974,7 +5022,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5001,76 +5049,76 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>180</v>
-      </c>
       <c r="K1" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" s="23" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>805</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>167</v>
       </c>
       <c r="E2" s="22">
         <v>2017</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
@@ -5110,171 +5158,171 @@
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" s="23" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>300</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="E3" s="22">
         <v>2017</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>589</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>261</v>
       </c>
       <c r="E4" s="22">
         <v>2016</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>266</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>625</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>274</v>
       </c>
       <c r="E5" s="22">
         <v>2017</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>278</v>
-      </c>
       <c r="K5" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>952</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E6" s="22">
         <v>2017</v>
       </c>
       <c r="F6" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="I6" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>296</v>
-      </c>
       <c r="K6" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>222</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E7" s="23">
         <v>2016</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -5283,35 +5331,35 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="207" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>706</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>383</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>385</v>
       </c>
       <c r="E9" s="22">
         <v>2017</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="422">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1453,6 +1453,24 @@
   </si>
   <si>
     <t>Akana是一款针对android应用程序分析的交互式分析环境（IAE），是专业用户对Android应用程序进行洞察分析的AIO工具。</t>
+  </si>
+  <si>
+    <t>无工具</t>
+  </si>
+  <si>
+    <t>应用程序</t>
+  </si>
+  <si>
+    <t>该应用程序的描述是否有误导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题建模、LDA&amp;PLDA、信息安全、文字挖掘、机器学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yyang57@utk.edu
+{fjysun, berryg}@eecs.utk.edu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2262,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2513,7 +2531,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>131</v>
@@ -2521,14 +2539,24 @@
       <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="430">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1484,6 +1484,20 @@
   </si>
   <si>
     <t>文本报告（）</t>
+  </si>
+  <si>
+    <t>https://www.virustotal.com</t>
+  </si>
+  <si>
+    <t>virustotal</t>
+  </si>
+  <si>
+    <t>多方杀毒软件的检测报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业软件，集成多个杀毒软件，可以用来做对照试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2445,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58:G58"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4948,16 +4962,28 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="3"/>
+    <row r="151" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="B151" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="432">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1483,9 +1483,6 @@
     <t>apk</t>
   </si>
   <si>
-    <t>文本报告（）</t>
-  </si>
-  <si>
     <t>https://www.virustotal.com</t>
   </si>
   <si>
@@ -1497,6 +1494,18 @@
   </si>
   <si>
     <t>商业软件，集成多个杀毒软件，可以用来做对照试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本报告（列出检测出的第三方库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反编译、反混淆、库实例恢复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2311,16 +2320,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" customWidth="1"/>
-    <col min="2" max="2" width="39.375" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="51.125" customWidth="1"/>
-    <col min="5" max="5" width="44.375" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="4" max="4" width="51.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2376,7 +2385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>186</v>
       </c>
@@ -2410,7 +2419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>400</v>
       </c>
@@ -2421,19 +2430,19 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2459,22 +2468,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="62.125" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="32" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -2516,7 +2525,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
@@ -2543,7 +2552,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -2558,7 +2567,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>422</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -2602,7 +2611,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -2617,7 +2626,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -2630,7 +2639,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -2645,7 +2654,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
@@ -2660,7 +2669,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -2673,7 +2682,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -2688,7 +2697,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -2703,7 +2712,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -2718,7 +2727,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -2733,7 +2742,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -2748,7 +2757,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -2763,7 +2772,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -2778,7 +2787,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -2793,7 +2802,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2808,7 +2817,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -2823,7 +2832,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -2838,7 +2847,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -2853,7 +2862,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -2868,7 +2877,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -2883,7 +2892,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2896,7 +2905,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>55</v>
@@ -2911,7 +2920,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>57</v>
@@ -2926,7 +2935,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>59</v>
@@ -2941,7 +2950,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>61</v>
@@ -2954,7 +2963,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>62</v>
@@ -2969,7 +2978,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>64</v>
@@ -2984,7 +2993,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>66</v>
@@ -2997,7 +3006,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>67</v>
@@ -3012,7 +3021,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>68</v>
@@ -3027,7 +3036,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>70</v>
@@ -3042,7 +3051,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>72</v>
@@ -3057,7 +3066,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>74</v>
@@ -3072,7 +3081,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>76</v>
@@ -3087,7 +3096,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -3102,7 +3111,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>80</v>
@@ -3117,7 +3126,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>98</v>
@@ -3132,7 +3141,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>83</v>
@@ -3147,7 +3156,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>85</v>
@@ -3162,7 +3171,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>87</v>
@@ -3175,7 +3184,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
         <v>88</v>
@@ -3190,7 +3199,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
         <v>90</v>
@@ -3205,7 +3214,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
         <v>92</v>
@@ -3220,7 +3229,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>94</v>
@@ -3235,7 +3244,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>96</v>
@@ -3250,7 +3259,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>125</v>
       </c>
@@ -3277,7 +3286,7 @@
       </c>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>109</v>
@@ -3292,7 +3301,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>111</v>
@@ -3307,7 +3316,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>116</v>
@@ -3322,7 +3331,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -3341,7 +3350,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
         <v>221</v>
@@ -3354,7 +3363,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>146</v>
@@ -3371,7 +3380,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>423</v>
       </c>
@@ -3381,7 +3390,9 @@
       <c r="C58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="E58" s="3" t="s">
         <v>392</v>
       </c>
@@ -3389,12 +3400,14 @@
         <v>424</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>429</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>150</v>
@@ -3415,7 +3428,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>152</v>
@@ -3432,7 +3445,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>154</v>
@@ -3449,7 +3462,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>158</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>157</v>
@@ -3489,7 +3502,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>160</v>
@@ -3506,7 +3519,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>162</v>
@@ -3523,7 +3536,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>164</v>
@@ -3540,7 +3553,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>182</v>
@@ -3557,7 +3570,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>184</v>
@@ -3574,7 +3587,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>188</v>
@@ -3591,7 +3604,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>190</v>
@@ -3608,7 +3621,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>192</v>
@@ -3625,7 +3638,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>204</v>
@@ -3642,7 +3655,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>206</v>
@@ -3659,7 +3672,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>208</v>
@@ -3676,7 +3689,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>209</v>
@@ -3693,7 +3706,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>211</v>
@@ -3710,7 +3723,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>214</v>
@@ -3727,7 +3740,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>216</v>
@@ -3744,7 +3757,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>218</v>
@@ -3761,7 +3774,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="s">
         <v>220</v>
@@ -3778,7 +3791,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>247</v>
@@ -3791,7 +3804,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="22" t="s">
         <v>223</v>
@@ -3808,7 +3821,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
         <v>225</v>
@@ -3825,7 +3838,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>226</v>
@@ -3842,7 +3855,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="22" t="s">
         <v>229</v>
@@ -3859,7 +3872,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="22" t="s">
         <v>231</v>
@@ -3876,7 +3889,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="22" t="s">
         <v>233</v>
@@ -3893,7 +3906,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="22" t="s">
         <v>235</v>
@@ -3910,7 +3923,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="22" t="s">
         <v>237</v>
@@ -3927,7 +3940,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="22" t="s">
         <v>239</v>
@@ -3944,7 +3957,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="22" t="s">
         <v>241</v>
@@ -3961,7 +3974,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="22" t="s">
         <v>243</v>
@@ -3978,7 +3991,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="22" t="s">
         <v>245</v>
@@ -3995,7 +4008,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4" t="s">
         <v>246</v>
@@ -4008,7 +4021,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="22" t="s">
         <v>249</v>
@@ -4025,7 +4038,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="22" t="s">
         <v>251</v>
@@ -4042,7 +4055,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="22" t="s">
         <v>253</v>
@@ -4059,7 +4072,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="22" t="s">
         <v>255</v>
@@ -4076,7 +4089,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="22" t="s">
         <v>257</v>
@@ -4093,7 +4106,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>268</v>
@@ -4110,7 +4123,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>269</v>
@@ -4127,7 +4140,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="22" t="s">
         <v>280</v>
@@ -4144,7 +4157,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="22" t="s">
         <v>282</v>
@@ -4161,7 +4174,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="22" t="s">
         <v>284</v>
@@ -4178,7 +4191,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="22" t="s">
         <v>286</v>
@@ -4195,7 +4208,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="22" t="s">
         <v>288</v>
@@ -4212,7 +4225,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>297</v>
       </c>
@@ -4231,7 +4244,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="22" t="s">
         <v>301</v>
@@ -4248,7 +4261,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="22" t="s">
         <v>303</v>
@@ -4265,7 +4278,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="22" t="s">
         <v>305</v>
@@ -4282,7 +4295,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="22" t="s">
         <v>307</v>
@@ -4299,7 +4312,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4" t="s">
         <v>318</v>
@@ -4312,7 +4325,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="23" t="s">
         <v>312</v>
@@ -4329,7 +4342,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>314</v>
@@ -4346,7 +4359,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4" t="s">
         <v>319</v>
@@ -4359,7 +4372,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="22" t="s">
         <v>317</v>
@@ -4376,7 +4389,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="22" t="s">
         <v>321</v>
@@ -4393,7 +4406,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="22" t="s">
         <v>323</v>
@@ -4410,7 +4423,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="22" t="s">
         <v>325</v>
@@ -4427,7 +4440,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
         <v>327</v>
@@ -4444,7 +4457,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>329</v>
@@ -4461,7 +4474,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="22" t="s">
         <v>332</v>
@@ -4478,7 +4491,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="22" t="s">
         <v>334</v>
@@ -4495,7 +4508,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="22" t="s">
         <v>337</v>
@@ -4512,7 +4525,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="22" t="s">
         <v>339</v>
@@ -4529,7 +4542,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="22" t="s">
         <v>341</v>
@@ -4546,7 +4559,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>343</v>
       </c>
@@ -4565,7 +4578,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>345</v>
       </c>
@@ -4584,7 +4597,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>349</v>
       </c>
@@ -4603,7 +4616,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>351</v>
@@ -4620,7 +4633,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="22" t="s">
         <v>354</v>
@@ -4637,7 +4650,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="22" t="s">
         <v>356</v>
@@ -4654,7 +4667,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="22" t="s">
         <v>358</v>
@@ -4671,7 +4684,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4" t="s">
         <v>362</v>
@@ -4684,7 +4697,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="22" t="s">
         <v>361</v>
@@ -4701,7 +4714,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="22" t="s">
         <v>364</v>
@@ -4718,7 +4731,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="22" t="s">
         <v>365</v>
@@ -4735,7 +4748,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="22" t="s">
         <v>368</v>
@@ -4752,7 +4765,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="22" t="s">
         <v>370</v>
@@ -4769,7 +4782,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="22" t="s">
         <v>371</v>
@@ -4786,7 +4799,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="22" t="s">
         <v>373</v>
@@ -4803,7 +4816,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="22" t="s">
         <v>375</v>
@@ -4820,7 +4833,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="22" t="s">
         <v>377</v>
@@ -4837,7 +4850,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="22" t="s">
         <v>379</v>
@@ -4854,7 +4867,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="22" t="s">
         <v>381</v>
@@ -4871,7 +4884,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="22" t="s">
         <v>389</v>
@@ -4888,7 +4901,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="28" t="s">
         <v>330</v>
@@ -4905,7 +4918,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4" t="s">
         <v>406</v>
@@ -4918,7 +4931,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>407</v>
       </c>
@@ -4945,7 +4958,7 @@
       </c>
       <c r="I149" s="27"/>
     </row>
-    <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>415</v>
       </c>
@@ -4962,15 +4975,15 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>135</v>
@@ -4982,17 +4995,17 @@
         <v>130</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>405</v>
       </c>
@@ -5019,13 +5032,13 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.375" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -5039,7 +5052,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -5049,7 +5062,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5076,16 +5089,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>171</v>
       </c>
@@ -5120,7 +5133,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="23" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="23" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A2" s="23">
         <v>805</v>
       </c>
@@ -5185,7 +5198,7 @@
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" s="23" customFormat="1" ht="171" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" s="23" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>300</v>
       </c>
@@ -5220,7 +5233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>589</v>
       </c>
@@ -5255,7 +5268,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>625</v>
       </c>
@@ -5288,7 +5301,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>952</v>
       </c>
@@ -5323,7 +5336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>222</v>
       </c>
@@ -5343,7 +5356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -5358,7 +5371,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="207" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>706</v>
       </c>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="437">
   <si>
     <t>论文</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,6 +1506,26 @@
   </si>
   <si>
     <t>反编译、反混淆、库实例恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LibRadar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本信息（在线版以表格形式展示，离线版在控制台以json格式直接输出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反编译、反混淆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2468,8 +2488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3445,21 +3465,31 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+    <row r="61" spans="1:9" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E61" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" ht="69" x14ac:dyDescent="0.25">

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Store\document\all_my_work\CZY\MobileSec\MalwareDetection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="461">
   <si>
     <t>论文</t>
   </si>
@@ -77,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
-  </si>
-  <si>
-    <t>android恶意软件库（5000+）10~12年的，高校教职人员可以发送邮件获取，并且向南大开放</t>
   </si>
   <si>
     <t>https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html</t>
@@ -421,15 +423,6 @@
     <t>W. Enck, et al., “TaintDroid: An information-flow tracking system for realtime privacy monitoring on smartphones,” in Proc. 9th USENIX Conf. Operating Syst. Des. Implementation, 2010, pp. 1–6</t>
   </si>
   <si>
-    <t>TaintDroid: 跟踪信息流的工具</t>
-  </si>
-  <si>
-    <t>S. Arzt, et al., “FlowDroid: Precise context, flow, field, object-sensitive and lifecycle-aware taint analysis for Android apps,” in Proc. 35th ACM SIGPLAN Conf. Program. Language Des. Implementation, 2014, pp. 259–269.</t>
-  </si>
-  <si>
-    <t>FlowDroid: 跟踪信息流工具</t>
-  </si>
-  <si>
     <t>K. Mao, M. Harman, and Y. Jia, “Sapienz: Multi-objective automated testing for Android applications,” in Proc. 25th Int. Symp. Softw. Testing Anal., 2016, pp. 94–105.</t>
   </si>
   <si>
@@ -1084,9 +1077,6 @@
     <t>http://www.mobiseclab.org/eacus.jsp</t>
   </si>
   <si>
-    <t>简单的恶意软件测试工具，Akana 的前身</t>
-  </si>
-  <si>
     <t>检测报告（有风险等级）</t>
   </si>
   <si>
@@ -1115,9 +1105,6 @@
   </si>
   <si>
     <t>Crowdroid</t>
-  </si>
-  <si>
-    <t>Crowdroid: Behavior-Based Malware Detection System for Android</t>
   </si>
   <si>
     <t>基于行为的Android恶意软件检测系统,
@@ -1335,19 +1322,152 @@
   </si>
   <si>
     <t xml:space="preserve"> 作为应用程序，我们将展示这些模型如何帮助确定未知恶意软件应用程序是否更有可能是有害或广告软件类型。</t>
+  </si>
+  <si>
+    <t>简单的恶意软件测试工具，Akana 的前身,只有在线服务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crowdroid: Behavior-Based Malware Detection System for Android</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RiskInDroid</t>
+  </si>
+  <si>
+    <t>徐文远</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险评分1-100</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限，支持向量机，朴素贝叶斯，梯度，线性回归</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用机器学习评价风险</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成（很靠谱，值得进一步研究）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Collaborative verification of information flow for a high-assuranceq app store” by Michael D. Ernst, René Just, Suzanne Millstein, Werner M. Dietl, Stuart Pernsteiner, Franziska Roesner, Karl Koscher, Paulo Barros, Ravi Bhoraskar, Seungyeop Han, Paul Vines, and Edward X. Wu. In Proceedings of the 21st ACM Conference on Computer and Communications Security, (Scottsdale, AZ, USA), November 4-6, 2014. https://github.com/typetools/sparta/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A. Merlo, G.C. Georgiu. "RiskInDroid: Machine Learning-based Risk Analysis on Android", in Proceedings of the 32nd International Conference on ICT Systems Security and Privacy Protection，https://github.com/ClaudiuGeorgiu/RiskInDroid,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生根据源代码生成信息流，帮助手动识别恶意软件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃（没看懂&gt;_&lt;）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>drebin：android恶意软件库（5000+）10~12年的，高校教职人员可以发送邮件获取，并且向南大开放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ashishb/android-malware</t>
+  </si>
+  <si>
+    <t>Android恶意软件样本的集合
+现场采样 - 使用它们的风险
+从几个来源/邮件列表收集
+贡献是可喜的 - 请为每个样本类型创建一个新的目录，在该目录中添加一个自述文件和样本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. Arzt, et al., “FlowDroid: Precise context, flow, field, object-sensitive and lifecycle-aware taint analysis for Android apps,” in Proc. 35th ACM SIGPLAN Conf. Program. Language Des. Implementation, 2014, pp. 259–269. https://github.com/secure-software-engineering/soot-infoflow-android/wiki</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malice</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maline</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/soarlab/maline</t>
+  </si>
+  <si>
+    <t>Android恶意软件检测框架</t>
+  </si>
+  <si>
+    <t>https://github.com/maliceio/malice</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirusTotal的开源版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要一个Ubuntu实体机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepackageDetection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MindMac/RepackageDetection</t>
+  </si>
+  <si>
+    <t>是否重打包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dex文件分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowDroid: 静态跟踪信息流工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaintDroid: 动态跟踪信息流的工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/strazzere/anti-emulator</t>
+  </si>
+  <si>
+    <t>反模拟器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MindMac/HideAndroidEmulator</t>
+  </si>
+  <si>
+    <t>https://github.com/zyrikby/FSquaDRA</t>
+  </si>
+  <si>
+    <t>分析dexstring偏移识别二次打包，不需要原版本的apk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别两个apk的相似度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,146 +1503,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1537,8 +1541,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
       </patternFill>
     </fill>
     <fill>
@@ -1547,194 +1551,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1868,236 +1686,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2138,13 +1735,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="25" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2166,13 +1763,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2181,63 +1778,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2257,8 +1829,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I152" totalsRowShown="0">
-  <autoFilter ref="A1:I152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I158" totalsRowShown="0">
+  <autoFilter ref="A1:I158"/>
   <tableColumns count="9">
     <tableColumn id="1" name="工具名"/>
     <tableColumn id="2" name="来源"/>
@@ -2288,8 +1860,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K9" totalsRowShown="0">
-  <autoFilter ref="A1:K9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11"/>
   <tableColumns count="11">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="title"/>
@@ -2559,28 +2131,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.775" customWidth="1"/>
-    <col min="2" max="2" width="39.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="40.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="51.1083333333333" customWidth="1"/>
-    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="51.125" customWidth="1"/>
+    <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2594,7 +2166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:4">
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:4">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:4">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -2648,99 +2220,103 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" ht="81" spans="1:4">
+    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>20</v>
+      <c r="B6" s="36" t="s">
+        <v>438</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="108" spans="1:2">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="31" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+    </row>
+    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>440</v>
+      </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId2" display="https://virusshare.com/ "/>
-    <hyperlink ref="D2" r:id="rId3" display="http://www.malgenomeproject.org/android "/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.sec.cs.tu-bs.de/~danarp/drebin/index.html"/>
-    <hyperlink ref="A8" r:id="rId5" display="http://akana.mobiseclab.org/index.jsp?type=history"/>
+    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I152"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="62.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="43.2166666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.2166666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="32" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2749,25 +2325,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15"/>
@@ -2777,40 +2353,40 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" ht="54" spans="1:9">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" ht="67.5" spans="1:9">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2819,42 +2395,42 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" ht="54" spans="1:9">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2863,13 +2439,13 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" ht="54" spans="1:9">
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2878,10 +2454,10 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
@@ -2891,13 +2467,13 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" ht="54" spans="1:9">
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2906,13 +2482,13 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" ht="54" spans="1:9">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2921,10 +2497,10 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2934,13 +2510,13 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" ht="54" spans="1:9">
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2949,13 +2525,13 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" ht="54" spans="1:9">
+    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2964,13 +2540,13 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" ht="54" spans="1:9">
+    <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2979,13 +2555,13 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" ht="54" spans="1:9">
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2994,13 +2570,13 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" ht="54" spans="1:9">
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -3009,13 +2585,13 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" ht="54" spans="1:9">
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -3024,13 +2600,13 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" ht="40.5" spans="1:9">
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -3039,13 +2615,13 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" ht="54" spans="1:9">
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -3054,13 +2630,13 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" ht="40.5" spans="1:9">
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -3069,13 +2645,13 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" ht="40.5" spans="1:9">
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -3084,13 +2660,13 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" ht="54" spans="1:9">
+    <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -3099,13 +2675,13 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" ht="54" spans="1:9">
+    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -3114,13 +2690,13 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" ht="40.5" spans="1:9">
+    <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -3129,13 +2705,13 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" ht="40.5" spans="1:9">
+    <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -3144,10 +2720,10 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15"/>
@@ -3157,13 +2733,13 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" ht="54" spans="1:9">
+    <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -3172,13 +2748,13 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" ht="40.5" spans="1:9">
+    <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -3187,13 +2763,13 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" ht="54" spans="1:9">
+    <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -3202,10 +2778,10 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
@@ -3215,13 +2791,13 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" ht="40.5" spans="1:9">
+    <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -3230,13 +2806,13 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" ht="40.5" spans="1:9">
+    <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -3245,10 +2821,10 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15"/>
@@ -3258,13 +2834,13 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" ht="67.5" spans="1:9">
+    <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -3273,10 +2849,10 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" ht="27" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>17</v>
@@ -3288,13 +2864,13 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" ht="54" spans="1:9">
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -3303,13 +2879,13 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" ht="54" spans="1:9">
+    <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -3318,13 +2894,13 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" ht="54" spans="1:9">
+    <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -3333,13 +2909,13 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" ht="40.5" spans="1:9">
+    <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -3348,13 +2924,13 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" ht="54" spans="1:9">
+    <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3363,13 +2939,13 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" ht="54" spans="1:9">
+    <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -3378,13 +2954,13 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" ht="54" spans="1:9">
+    <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -3393,13 +2969,13 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" ht="40.5" spans="1:9">
+    <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -3408,13 +2984,13 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" ht="40.5" spans="1:9">
+    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -3423,10 +2999,10 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15"/>
@@ -3436,13 +3012,13 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" ht="40.5" spans="1:9">
+    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -3451,13 +3027,13 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" ht="54" spans="1:9">
+    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>454</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -3466,13 +3042,13 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" ht="54" spans="1:9">
+    <row r="48" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
-      <c r="B48" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>130</v>
+      <c r="B48" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>453</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3481,13 +3057,13 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" ht="40.5" spans="1:9">
+    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -3496,13 +3072,13 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" ht="40.5" spans="1:9">
+    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -3511,40 +3087,40 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" ht="54" spans="1:9">
+    <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="H51" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>140</v>
-      </c>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3553,13 +3129,13 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -3568,13 +3144,13 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3583,29 +3159,29 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" ht="40.5" spans="1:9">
+    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3615,456 +3191,456 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" ht="54" spans="1:9">
+    <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" ht="54" spans="1:9">
+    <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" ht="67.5" spans="1:9">
+    <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" ht="27" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" ht="121.5" spans="1:9">
+    <row r="61" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" ht="67.5" spans="1:9">
-      <c r="A62" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="D62" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="63" ht="81" spans="1:9">
-      <c r="A63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" ht="27" spans="1:9">
+    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" ht="40.5" spans="1:9">
+    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" ht="40.5" spans="1:9">
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" ht="27" spans="1:9">
+    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" ht="40.5" spans="1:9">
+    <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" ht="27" spans="1:9">
+    <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" ht="81" spans="1:9">
+    <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" ht="27" spans="1:9">
+    <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" ht="40.5" spans="1:9">
+    <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" ht="27" spans="1:9">
+    <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" ht="54" spans="1:9">
+    <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" ht="27" spans="1:9">
+    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" ht="54" spans="1:9">
+    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" ht="27" spans="1:9">
+    <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" ht="40.5" spans="1:9">
+    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" ht="67.5" spans="1:9">
+    <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" ht="40.5" spans="1:9">
+    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -4074,214 +3650,214 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" ht="27" spans="1:9">
+    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" ht="40.5" spans="1:9">
+    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" ht="27" spans="1:9">
+    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" ht="27" spans="1:9">
+    <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" ht="27" spans="1:9">
+    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" ht="81" spans="1:9">
+    <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" ht="54" spans="1:9">
+    <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" ht="54" spans="1:9">
+    <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" ht="54" spans="1:9">
+    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
     </row>
-    <row r="91" ht="67.5" spans="1:9">
+    <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
     </row>
-    <row r="92" ht="27" spans="1:9">
+    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
     </row>
-    <row r="93" ht="27" spans="1:9">
+    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="15"/>
@@ -4291,301 +3867,301 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95" ht="27" spans="1:9">
+    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
     </row>
-    <row r="96" ht="27" spans="1:9">
+    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" ht="40.5" spans="1:9">
+    <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" ht="54" spans="1:9">
+    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
     </row>
-    <row r="99" ht="27" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
     </row>
-    <row r="100" ht="27" spans="1:9">
+    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
     </row>
-    <row r="101" ht="27" spans="1:9">
+    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102" ht="40.5" spans="1:9">
+    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
     </row>
-    <row r="103" ht="40.5" spans="1:9">
+    <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
     </row>
-    <row r="104" ht="54" spans="1:9">
+    <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
     </row>
-    <row r="105" ht="27" spans="1:9">
+    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
     </row>
-    <row r="106" ht="27" spans="1:9">
+    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108" ht="27" spans="1:9">
+    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109" ht="27" spans="1:9">
+    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
     </row>
-    <row r="110" ht="27" spans="1:9">
+    <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
     </row>
-    <row r="111" ht="40.5" spans="1:9">
+    <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -4595,44 +4171,44 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -4642,322 +4218,322 @@
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
     </row>
-    <row r="116" ht="27" spans="1:9">
+    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
     </row>
-    <row r="117" ht="27" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
     </row>
-    <row r="118" ht="40.5" spans="1:9">
+    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
     </row>
-    <row r="119" ht="27" spans="1:9">
+    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
     </row>
-    <row r="120" ht="40.5" spans="1:9">
+    <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
     </row>
-    <row r="122" ht="27" spans="1:9">
+    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
     </row>
-    <row r="123" ht="54" spans="1:9">
+    <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
     </row>
-    <row r="124" ht="40.5" spans="1:9">
+    <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
     </row>
-    <row r="125" ht="27" spans="1:9">
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
     </row>
-    <row r="126" ht="27" spans="1:9">
+    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
     </row>
-    <row r="127" ht="40.5" spans="1:9">
+    <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" ht="27" spans="1:9">
+    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
-    <row r="129" ht="27" spans="1:9">
+    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
     </row>
-    <row r="130" ht="40.5" spans="1:9">
+    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
     </row>
-    <row r="131" ht="40.5" spans="1:9">
+    <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
     </row>
-    <row r="132" ht="27" spans="1:9">
+    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
     </row>
-    <row r="133" ht="27" spans="1:9">
+    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -4967,231 +4543,231 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
     </row>
-    <row r="135" ht="40.5" spans="1:9">
+    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
     </row>
-    <row r="136" ht="27" spans="1:9">
+    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
     </row>
-    <row r="137" ht="54" spans="1:9">
+    <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
     </row>
-    <row r="138" ht="54" spans="1:9">
+    <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
     </row>
-    <row r="139" ht="27" spans="1:9">
+    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
     </row>
-    <row r="140" ht="27" spans="1:9">
+    <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
     </row>
-    <row r="141" ht="27" spans="1:9">
+    <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
     </row>
-    <row r="143" ht="40.5" spans="1:9">
+    <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
     </row>
-    <row r="144" ht="27" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
       <c r="B144" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
     </row>
-    <row r="145" ht="27" spans="1:9">
+    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
     </row>
-    <row r="146" ht="40.5" spans="1:9">
+    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
     </row>
-    <row r="147" ht="40.5" spans="1:9">
+    <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
       <c r="B147" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -5201,42 +4777,42 @@
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
     </row>
-    <row r="149" ht="40.5" spans="1:9">
+    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H149" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I149" s="20"/>
+    </row>
+    <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B150" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C150" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G149" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H149" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="I149" s="20"/>
-    </row>
-    <row r="150" ht="40.5" spans="1:9">
-      <c r="A150" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -5245,90 +4821,195 @@
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
     </row>
-    <row r="151" ht="40.5" spans="1:9">
+    <row r="151" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
     </row>
-    <row r="152" ht="54" spans="1:9">
+    <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="I152" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="B152" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="D152" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>365</v>
+    </row>
+    <row r="153" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G153" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="H153" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B154" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="D154" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="B156" t="s">
+        <v>444</v>
+      </c>
+      <c r="C156" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B157" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G157" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="H157" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>458</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId2" display="https://github.com/maaaaz/androwarn/"/>
-    <hyperlink ref="I62" r:id="rId3" display="ecnuchensen@gmail.com, minhuixue@nyu.edu, ellison.tang@gmail.com, lhxu@cs.ecnu.edu.cn, zhu-hj@cs.sjtu.edu.cn"/>
+    <hyperlink ref="B51" r:id="rId1"/>
+    <hyperlink ref="I62" r:id="rId2"/>
+    <hyperlink ref="B155" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="40.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="61.375" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5342,29 +5023,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:4">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" ht="40.5" spans="1:4">
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -5372,84 +5053,83 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AU9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.1083333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.2166666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.775" customWidth="1"/>
-    <col min="9" max="9" width="10.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:11">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="162" spans="1:47">
+    </row>
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>805</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5489,171 +5169,171 @@
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="202.5" spans="1:11">
+    <row r="3" spans="1:47" s="1" customFormat="1" ht="171" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E3" s="2">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="4" ht="162" spans="1:11">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>589</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" ht="189" spans="1:11">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>625</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E5" s="2">
         <v>2017</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" ht="216" spans="1:11">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>952</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E6" s="2">
         <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E7" s="1">
         <v>2016</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5662,40 +5342,56 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" ht="216" spans="1:11">
+    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>706</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E9" s="2">
         <v>2017</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>457</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="465">
   <si>
     <t>论文</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>同上</t>
-  </si>
-  <si>
-    <t>请房老师发邮件要数据，具体请参见：https://virusshare.com/about.4n6</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Arp, Michael Spreitzenbarth, Malte Huebner, Hugo Gascon, and Konrad Rieck "Drebin: Efficient and Explainable Detection of Android Malware in Your Pocket", 21th Annual Network and Distributed System Security Symposium (NDSS), </t>
@@ -1462,12 +1459,73 @@
     <t>识别两个apk的相似度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Allix, Kevin, et al. "Androzoo: Collecting millions of android apps for the research community." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mining Software Repositories (MSR), 2016 IEEE/ACM 13th Working Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. IEEE, 2016.</t>
+    </r>
+  </si>
+  <si>
+    <t>d494e85307ac9b23884f033b0a761204c3db29ea42c2e1e5d2d7b4450774f6ab</t>
+  </si>
+  <si>
+    <r>
+      <t>Username: Fanga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password: imbLwlYdDJSh</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://virusshare.com/login.4n6</t>
+  </si>
+  <si>
+    <t>不全是android的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,6 +1581,19 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1816,13 +1887,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="论文"/>
     <tableColumn id="2" name="描述"/>
     <tableColumn id="3" name="状态"/>
     <tableColumn id="4" name="备注"/>
+    <tableColumn id="5" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2137,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2152,7 +2224,7 @@
     <col min="5" max="5" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2165,8 +2237,11 @@
       <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -2194,9 +2269,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>460</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>13</v>
@@ -2207,8 +2282,11 @@
       <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
@@ -2216,60 +2294,65 @@
         <v>17</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="114" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>439</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>440</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2295,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2313,10 +2396,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2325,25 +2408,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15"/>
@@ -2355,38 +2438,38 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2395,42 +2478,42 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2442,10 +2525,10 @@
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2457,7 +2540,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
@@ -2470,10 +2553,10 @@
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2485,10 +2568,10 @@
     <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2500,7 +2583,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2513,10 +2596,10 @@
     <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2528,10 +2611,10 @@
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2543,10 +2626,10 @@
     <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2558,10 +2641,10 @@
     <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2573,10 +2656,10 @@
     <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2588,10 +2671,10 @@
     <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2603,10 +2686,10 @@
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2618,10 +2701,10 @@
     <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2633,10 +2716,10 @@
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2648,10 +2731,10 @@
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2663,10 +2746,10 @@
     <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2678,10 +2761,10 @@
     <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2693,10 +2776,10 @@
     <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2708,10 +2791,10 @@
     <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2723,7 +2806,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15"/>
@@ -2739,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2751,10 +2834,10 @@
     <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2766,10 +2849,10 @@
     <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2781,7 +2864,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
@@ -2794,10 +2877,10 @@
     <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2809,10 +2892,10 @@
     <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2824,7 +2907,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15"/>
@@ -2837,10 +2920,10 @@
     <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2852,7 +2935,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>17</v>
@@ -2867,10 +2950,10 @@
     <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -2882,10 +2965,10 @@
     <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -2897,10 +2980,10 @@
     <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2912,10 +2995,10 @@
     <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -2927,10 +3010,10 @@
     <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -2942,10 +3025,10 @@
     <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -2957,10 +3040,10 @@
     <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -2972,10 +3055,10 @@
     <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -2987,10 +3070,10 @@
     <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -3002,7 +3085,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15"/>
@@ -3015,10 +3098,10 @@
     <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>125</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -3030,10 +3113,10 @@
     <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -3045,10 +3128,10 @@
     <row r="48" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3060,10 +3143,10 @@
     <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -3075,10 +3158,10 @@
     <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -3089,38 +3172,38 @@
     </row>
     <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3132,10 +3215,10 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>140</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -3147,10 +3230,10 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3159,19 +3242,19 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -3181,7 +3264,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3194,156 +3277,156 @@
     <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>148</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>149</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>155</v>
       </c>
       <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="E59" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="D62" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="D63" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>175</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -3351,14 +3434,14 @@
     <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3368,14 +3451,14 @@
     <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>179</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3385,14 +3468,14 @@
     <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -3402,14 +3485,14 @@
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3419,14 +3502,14 @@
     <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -3436,14 +3519,14 @@
     <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3453,14 +3536,14 @@
     <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>189</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3470,14 +3553,14 @@
     <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3487,14 +3570,14 @@
     <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3504,14 +3587,14 @@
     <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>195</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3521,14 +3604,14 @@
     <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3538,14 +3621,14 @@
     <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3555,14 +3638,14 @@
     <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3572,14 +3655,14 @@
     <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3589,14 +3672,14 @@
     <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -3606,14 +3689,14 @@
     <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -3623,14 +3706,14 @@
     <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -3640,7 +3723,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -3653,14 +3736,14 @@
     <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -3670,14 +3753,14 @@
     <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -3687,14 +3770,14 @@
     <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -3704,14 +3787,14 @@
     <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -3721,14 +3804,14 @@
     <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
@@ -3738,14 +3821,14 @@
     <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -3755,14 +3838,14 @@
     <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -3772,14 +3855,14 @@
     <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -3789,14 +3872,14 @@
     <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -3806,14 +3889,14 @@
     <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -3823,14 +3906,14 @@
     <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -3840,14 +3923,14 @@
     <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -3857,7 +3940,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="15"/>
@@ -3870,14 +3953,14 @@
     <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -3887,14 +3970,14 @@
     <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -3904,14 +3987,14 @@
     <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -3921,14 +4004,14 @@
     <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -3938,14 +4021,14 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -3955,14 +4038,14 @@
     <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -3972,14 +4055,14 @@
     <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -3989,14 +4072,14 @@
     <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>250</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -4006,14 +4089,14 @@
     <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -4023,14 +4106,14 @@
     <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>255</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
@@ -4040,14 +4123,14 @@
     <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>257</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
@@ -4057,14 +4140,14 @@
     <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -4073,17 +4156,17 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>262</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -4093,14 +4176,14 @@
     <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>264</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -4110,14 +4193,14 @@
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>266</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -4127,14 +4210,14 @@
     <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>268</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -4144,14 +4227,14 @@
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>269</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>270</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -4161,7 +4244,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -4174,14 +4257,14 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -4191,14 +4274,14 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
@@ -4208,7 +4291,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -4221,14 +4304,14 @@
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>278</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
@@ -4238,14 +4321,14 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>280</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
@@ -4255,14 +4338,14 @@
     <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
@@ -4272,14 +4355,14 @@
     <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>283</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>284</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
@@ -4289,14 +4372,14 @@
     <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>286</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -4306,14 +4389,14 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
@@ -4323,14 +4406,14 @@
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
@@ -4340,14 +4423,14 @@
     <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>292</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
@@ -4357,14 +4440,14 @@
     <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
@@ -4374,14 +4457,14 @@
     <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
@@ -4391,14 +4474,14 @@
     <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
@@ -4407,17 +4490,17 @@
     </row>
     <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>301</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -4426,17 +4509,17 @@
     </row>
     <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
@@ -4445,17 +4528,17 @@
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>307</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
@@ -4465,14 +4548,14 @@
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
@@ -4482,14 +4565,14 @@
     <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>310</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>311</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
@@ -4499,14 +4582,14 @@
     <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>312</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>313</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -4516,14 +4599,14 @@
     <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>314</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
@@ -4533,7 +4616,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -4546,14 +4629,14 @@
     <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
@@ -4563,14 +4646,14 @@
     <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
@@ -4580,14 +4663,14 @@
     <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>322</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
@@ -4597,14 +4680,14 @@
     <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>324</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -4614,14 +4697,14 @@
     <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
@@ -4631,14 +4714,14 @@
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
@@ -4648,14 +4731,14 @@
     <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>329</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
@@ -4665,14 +4748,14 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>330</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>331</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
@@ -4682,14 +4765,14 @@
     <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>332</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
@@ -4699,14 +4782,14 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
       <c r="B144" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>335</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
@@ -4716,14 +4799,14 @@
     <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>337</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
@@ -4733,14 +4816,14 @@
     <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
@@ -4750,14 +4833,14 @@
     <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
       <c r="B147" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
@@ -4767,7 +4850,7 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -4777,42 +4860,42 @@
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
     </row>
-    <row r="149" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="C149" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G149" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C149" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G149" s="20" t="s">
+      <c r="H149" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="H149" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="I149" s="20"/>
     </row>
     <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="C150" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4821,98 +4904,98 @@
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
     </row>
-    <row r="151" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B151" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="C151" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="D151" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G151" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
     </row>
     <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="B152" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="C152" s="22" t="s">
+      <c r="D152" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="E152" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="E152" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G152" s="22" t="s">
+      <c r="H152" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="H152" s="22" t="s">
+      <c r="I152" s="23" t="s">
         <v>358</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>426</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="E153" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="D153" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="E153" s="33" t="s">
+      <c r="F153" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="F153" s="33" t="s">
+      <c r="G153" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="H153" s="35" t="s">
         <v>430</v>
-      </c>
-      <c r="H153" s="35" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B154" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C154" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="D154" s="35" t="s">
-        <v>437</v>
-      </c>
       <c r="E154" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -4920,64 +5003,64 @@
     </row>
     <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B155" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C155" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="C155" s="33" t="s">
+      <c r="D155" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D155" s="35" t="s">
-        <v>448</v>
-      </c>
       <c r="E155" s="33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B156" t="s">
         <v>443</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" s="38" t="s">
         <v>444</v>
-      </c>
-      <c r="C156" s="38" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B157" t="s">
         <v>449</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="G157" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="G157" s="33" t="s">
+      <c r="H157" s="33" t="s">
         <v>451</v>
-      </c>
-      <c r="H157" s="33" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5025,20 +5108,20 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>363</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -5071,37 +5154,37 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
@@ -5109,27 +5192,27 @@
         <v>805</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5174,34 +5257,34 @@
         <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="E3" s="2">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
@@ -5209,34 +5292,34 @@
         <v>589</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
@@ -5244,32 +5327,32 @@
         <v>625</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="E5" s="2">
         <v>2017</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
@@ -5277,34 +5360,34 @@
         <v>952</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="2">
         <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5312,19 +5395,19 @@
         <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E7" s="1">
         <v>2016</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -5333,7 +5416,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5347,46 +5430,46 @@
         <v>706</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="E9" s="2">
         <v>2017</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>455</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="472">
   <si>
     <t>论文</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>https://github.com/secure-software-engineering/DroidBench</t>
-  </si>
-  <si>
-    <t>DroidBench是一个开放的测试套件，用于评估专门针对Android应用程序的污点分析工具的有效性。该套件可用于评估静态和动态污点分析，但特别是它包含有趣的静态分析问题（字段敏感性，对象敏感性，访问路径长度的权衡等）的测试用例以及Android特定像正确建模应用程序生命周期，充分处理异步回调以及与UI交互等挑战。</t>
   </si>
   <si>
     <t>http://akana.mobiseclab.org/index.jsp?type=history</t>
@@ -1379,13 +1376,6 @@
     <t>https://github.com/ashishb/android-malware</t>
   </si>
   <si>
-    <t>Android恶意软件样本的集合
-现场采样 - 使用它们的风险
-从几个来源/邮件列表收集
-贡献是可喜的 - 请为每个样本类型创建一个新的目录，在该目录中添加一个自述文件和样本</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>S. Arzt, et al., “FlowDroid: Precise context, flow, field, object-sensitive and lifecycle-aware taint analysis for Android apps,” in Proc. 35th ACM SIGPLAN Conf. Program. Language Des. Implementation, 2014, pp. 259–269. https://github.com/secure-software-engineering/soot-infoflow-android/wiki</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1399,9 +1389,6 @@
   </si>
   <si>
     <t>https://github.com/soarlab/maline</t>
-  </si>
-  <si>
-    <t>Android恶意软件检测框架</t>
   </si>
   <si>
     <t>https://github.com/maliceio/malice</t>
@@ -1518,6 +1505,58 @@
   </si>
   <si>
     <t>不全是android的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DroidBench是一个开放的测试套件，用于评估专门针对Android应用程序的污点分析工具的有效性。该套件可用于评估静态和动态污点分析，但特别是它包含有趣的静态分析问题（字段敏感性，对象敏感性，访问路径长度的权衡等）的测试用例以及Android特定像正确建模应用程序生命周期，充分处理异步回调以及与UI交互等挑战。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android恶意软件样本的集合现场采样 - 使用它们的风险从几个来源/邮件列表收集.贡献是可喜的 - 请为每个样本类型创建一个新的目录，在该目录中添加一个自述文件和样本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态检测，机器学习，聚类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Android</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恶意软件检测框架，需要动态检测，恶意软件需要能在虚拟机中运行，因为条件苛刻故放弃</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文"Empirical assessment of machine learning-based malware detectors for Android: Measuring the Gap between In-the-Lab and In-the-Wild Validation Scenarios"的实现</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MLDroid/csbd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为恶意软件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习，sklearn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>csbd</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1578,12 +1617,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -1595,6 +1628,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1765,7 +1805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1866,7 +1906,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1901,8 +1940,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I158" totalsRowShown="0">
-  <autoFilter ref="A1:I158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I159" totalsRowShown="0">
+  <autoFilter ref="A1:I159"/>
   <tableColumns count="9">
     <tableColumn id="1" name="工具名"/>
     <tableColumn id="2" name="来源"/>
@@ -2211,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2271,7 +2310,7 @@
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>13</v>
@@ -2283,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2294,13 +2333,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -2308,7 +2347,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>14</v>
@@ -2322,26 +2361,26 @@
         <v>20</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>21</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2376,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2396,10 +2435,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2408,25 +2447,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15"/>
@@ -2438,38 +2477,38 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2480,40 +2519,40 @@
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2525,10 +2564,10 @@
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2540,7 +2579,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
@@ -2553,10 +2592,10 @@
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2568,10 +2607,10 @@
     <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2583,7 +2622,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2596,10 +2635,10 @@
     <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2611,10 +2650,10 @@
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2626,10 +2665,10 @@
     <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2641,10 +2680,10 @@
     <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2656,10 +2695,10 @@
     <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2671,10 +2710,10 @@
     <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2686,10 +2725,10 @@
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2701,10 +2740,10 @@
     <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2716,10 +2755,10 @@
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2731,10 +2770,10 @@
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2746,10 +2785,10 @@
     <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2761,10 +2800,10 @@
     <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2776,10 +2815,10 @@
     <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2791,10 +2830,10 @@
     <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2806,7 +2845,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15"/>
@@ -2822,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2834,10 +2873,10 @@
     <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2849,10 +2888,10 @@
     <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2864,7 +2903,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
@@ -2877,10 +2916,10 @@
     <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2892,10 +2931,10 @@
     <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2907,7 +2946,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15"/>
@@ -2920,10 +2959,10 @@
     <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>102</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2935,7 +2974,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>17</v>
@@ -2950,10 +2989,10 @@
     <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -2965,10 +3004,10 @@
     <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -2980,10 +3019,10 @@
     <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2995,10 +3034,10 @@
     <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -3010,10 +3049,10 @@
     <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3025,10 +3064,10 @@
     <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -3040,10 +3079,10 @@
     <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -3055,10 +3094,10 @@
     <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -3070,10 +3109,10 @@
     <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -3085,7 +3124,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15"/>
@@ -3098,10 +3137,10 @@
     <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -3113,10 +3152,10 @@
     <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -3128,10 +3167,10 @@
     <row r="48" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3143,10 +3182,10 @@
     <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -3158,10 +3197,10 @@
     <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -3172,38 +3211,38 @@
     </row>
     <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3215,10 +3254,10 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -3230,10 +3269,10 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3244,17 +3283,17 @@
     </row>
     <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -3264,7 +3303,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3277,14 +3316,14 @@
     <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>148</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -3293,63 +3332,63 @@
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>154</v>
       </c>
       <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>157</v>
-      </c>
       <c r="E59" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -3358,75 +3397,75 @@
     </row>
     <row r="61" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="D61" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>164</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>165</v>
       </c>
       <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>168</v>
-      </c>
       <c r="D62" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="D63" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -3434,14 +3473,14 @@
     <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3451,14 +3490,14 @@
     <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3468,14 +3507,14 @@
     <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -3485,14 +3524,14 @@
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>182</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3502,14 +3541,14 @@
     <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -3519,14 +3558,14 @@
     <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3536,14 +3575,14 @@
     <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3553,14 +3592,14 @@
     <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3570,14 +3609,14 @@
     <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3587,14 +3626,14 @@
     <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3604,14 +3643,14 @@
     <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>196</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3621,14 +3660,14 @@
     <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3638,14 +3677,14 @@
     <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3655,14 +3694,14 @@
     <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3672,14 +3711,14 @@
     <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -3689,14 +3728,14 @@
     <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -3706,14 +3745,14 @@
     <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -3723,7 +3762,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -3736,14 +3775,14 @@
     <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -3753,14 +3792,14 @@
     <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -3770,14 +3809,14 @@
     <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -3787,14 +3826,14 @@
     <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -3804,14 +3843,14 @@
     <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
@@ -3821,14 +3860,14 @@
     <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -3838,14 +3877,14 @@
     <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -3855,14 +3894,14 @@
     <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -3872,14 +3911,14 @@
     <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -3889,14 +3928,14 @@
     <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -3906,14 +3945,14 @@
     <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -3923,14 +3962,14 @@
     <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -3940,7 +3979,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="15"/>
@@ -3953,14 +3992,14 @@
     <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -3970,14 +4009,14 @@
     <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -3987,14 +4026,14 @@
     <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -4004,14 +4043,14 @@
     <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -4021,14 +4060,14 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -4038,14 +4077,14 @@
     <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>246</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -4055,14 +4094,14 @@
     <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -4072,14 +4111,14 @@
     <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -4089,14 +4128,14 @@
     <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -4106,14 +4145,14 @@
     <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>254</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
@@ -4123,14 +4162,14 @@
     <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
@@ -4140,14 +4179,14 @@
     <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -4156,17 +4195,17 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -4176,14 +4215,14 @@
     <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -4193,14 +4232,14 @@
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -4210,14 +4249,14 @@
     <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -4227,14 +4266,14 @@
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -4244,7 +4283,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -4257,14 +4296,14 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>271</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>272</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -4274,14 +4313,14 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>274</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
@@ -4291,7 +4330,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -4304,14 +4343,14 @@
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
@@ -4321,14 +4360,14 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
@@ -4338,14 +4377,14 @@
     <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
@@ -4355,14 +4394,14 @@
     <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
@@ -4372,14 +4411,14 @@
     <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -4389,14 +4428,14 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>287</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
@@ -4406,14 +4445,14 @@
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
@@ -4423,14 +4462,14 @@
     <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
@@ -4440,14 +4479,14 @@
     <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>293</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
@@ -4457,14 +4496,14 @@
     <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
@@ -4474,14 +4513,14 @@
     <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C126" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
@@ -4490,17 +4529,17 @@
     </row>
     <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -4509,17 +4548,17 @@
     </row>
     <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>303</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
@@ -4528,17 +4567,17 @@
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
@@ -4548,14 +4587,14 @@
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>308</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
@@ -4565,14 +4604,14 @@
     <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
@@ -4582,14 +4621,14 @@
     <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -4599,14 +4638,14 @@
     <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>314</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
@@ -4616,7 +4655,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -4629,14 +4668,14 @@
     <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
@@ -4646,14 +4685,14 @@
     <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>318</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
@@ -4663,14 +4702,14 @@
     <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
@@ -4680,14 +4719,14 @@
     <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -4697,14 +4736,14 @@
     <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
@@ -4714,14 +4753,14 @@
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
@@ -4731,14 +4770,14 @@
     <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
@@ -4748,14 +4787,14 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
@@ -4765,14 +4804,14 @@
     <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
@@ -4782,14 +4821,14 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
       <c r="B144" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
@@ -4799,14 +4838,14 @@
     <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
@@ -4816,14 +4855,14 @@
     <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>338</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
@@ -4833,14 +4872,14 @@
     <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
       <c r="B147" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>340</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
@@ -4850,7 +4889,7 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -4862,40 +4901,40 @@
     </row>
     <row r="149" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="C149" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G149" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C149" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="G149" s="20" t="s">
+      <c r="H149" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="H149" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="I149" s="20"/>
     </row>
     <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B150" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="C150" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>348</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4906,96 +4945,96 @@
     </row>
     <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B151" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="C151" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C151" s="15" t="s">
+      <c r="D151" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G151" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
     </row>
     <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="B152" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="C152" s="22" t="s">
+      <c r="D152" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="E152" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="E152" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G152" s="22" t="s">
+      <c r="H152" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="H152" s="22" t="s">
+      <c r="I152" s="23" t="s">
         <v>357</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>425</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E153" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>434</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="D153" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="E153" s="33" t="s">
+      <c r="F153" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="F153" s="33" t="s">
+      <c r="G153" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="H153" s="35" t="s">
         <v>429</v>
-      </c>
-      <c r="H153" s="35" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B154" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C154" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="D154" s="35" t="s">
-        <v>436</v>
-      </c>
       <c r="E154" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -5003,64 +5042,102 @@
     </row>
     <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="44.25" x14ac:dyDescent="0.2">
+      <c r="A156" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B156" t="s">
         <v>441</v>
       </c>
-      <c r="B155" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="C155" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="E155" s="33" t="s">
+      <c r="C156" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="D156" t="s">
+        <v>464</v>
+      </c>
+      <c r="E156" t="s">
+        <v>426</v>
+      </c>
+      <c r="F156" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="B156" t="s">
-        <v>443</v>
-      </c>
-      <c r="C156" s="38" t="s">
-        <v>444</v>
+      <c r="H156" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="B157" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="G157" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="H157" s="33" t="s">
         <v>448</v>
-      </c>
-      <c r="B157" t="s">
-        <v>449</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="G157" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="H157" s="33" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>459</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>471</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D159" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="F159" t="s">
+        <v>427</v>
+      </c>
+      <c r="G159" t="s">
+        <v>469</v>
+      </c>
+      <c r="H159" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5069,11 +5146,12 @@
     <hyperlink ref="B51" r:id="rId1"/>
     <hyperlink ref="I62" r:id="rId2"/>
     <hyperlink ref="B155" r:id="rId3"/>
+    <hyperlink ref="B159" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5108,20 +5186,20 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -5154,37 +5232,37 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
@@ -5192,27 +5270,27 @@
         <v>805</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5257,34 +5335,34 @@
         <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="E3" s="2">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
@@ -5292,34 +5370,34 @@
         <v>589</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
@@ -5327,32 +5405,32 @@
         <v>625</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E5" s="2">
         <v>2017</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
@@ -5360,34 +5438,34 @@
         <v>952</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E6" s="2">
         <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5395,19 +5473,19 @@
         <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E7" s="1">
         <v>2016</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -5416,7 +5494,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5430,46 +5508,46 @@
         <v>706</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E9" s="2">
         <v>2017</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="475">
   <si>
     <t>论文</t>
   </si>
@@ -1557,6 +1557,17 @@
   </si>
   <si>
     <t>csbd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Droidenfense</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/droidefense/engine</t>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1940,8 +1951,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I159" totalsRowShown="0">
-  <autoFilter ref="A1:I159"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I160" totalsRowShown="0">
+  <autoFilter ref="A1:I160"/>
   <tableColumns count="9">
     <tableColumn id="1" name="工具名"/>
     <tableColumn id="2" name="来源"/>
@@ -2415,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5138,6 +5149,17 @@
       </c>
       <c r="H159" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>472</v>
+      </c>
+      <c r="B160" t="s">
+        <v>473</v>
+      </c>
+      <c r="D160" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/Android恶意软件检测工具.xlsx
+++ b/Android恶意软件检测工具.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Store\document\all_my_work\CZY\MobileSec\MalwareDetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57A02299-5E6D-4BB6-8E11-6F475027BC66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="应用仓库" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="476">
   <si>
     <t>论文</t>
   </si>
@@ -45,9 +46,6 @@
     <t>目前已经弃项，不过曾向南大公布过datasets，请房老师再看看有没有机会弄到数据库</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
-  </si>
-  <si>
     <t>D. E. Krutz, et al., “A dataset of open-source Android applications,” in Proc. 12th Working Conf. Mining Softw. Repositories, 2015, pp. 522–525</t>
   </si>
   <si>
@@ -57,9 +55,6 @@
     <t>正在拉取</t>
   </si>
   <si>
-    <t>https://github.com/AndroSec/AndroSecDatabases</t>
-  </si>
-  <si>
     <t>R. Stevens, J. Ganz, V. Filkov, P. Devanbu, and H. Chen, “Asking for (and about) permissions used by Android apps,” in Proc. 10th Working Conf. Mining Softw. Repositories, 2013, pp. 31–40.</t>
   </si>
   <si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>已经发索要邮件</t>
-  </si>
-  <si>
-    <t>https://androzoo.uni.lu/access</t>
   </si>
   <si>
     <t xml:space="preserve">https://virusshare.com/ </t>
@@ -1469,9 +1461,6 @@
       </rPr>
       <t>. IEEE, 2016.</t>
     </r>
-  </si>
-  <si>
-    <t>d494e85307ac9b23884f033b0a761204c3db29ea42c2e1e5d2d7b4450774f6ab</t>
   </si>
   <si>
     <r>
@@ -1570,11 +1559,31 @@
     <t>doing</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>论文DeepRefiner: Multilayer Android Malware Detection System Applying Deep Neural Networks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.malgenomeproject.org/android </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AndroSec/AndroSecDatabases</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://androzoo.uni.lu/access</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d494e85307ac9b23884f033b0a761204c3db29ea42c2e1e5d2d7b4450774f6ab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1937,65 +1946,65 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E11" totalsRowShown="0">
-  <autoFilter ref="A1:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:E11" totalsRowShown="0">
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="论文"/>
-    <tableColumn id="2" name="描述"/>
-    <tableColumn id="3" name="状态"/>
-    <tableColumn id="4" name="备注"/>
-    <tableColumn id="5" name="列1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="论文"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="描述"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="状态"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="备注"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:I160" totalsRowShown="0">
-  <autoFilter ref="A1:I160"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:I161" totalsRowShown="0">
+  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="工具名"/>
-    <tableColumn id="2" name="来源"/>
-    <tableColumn id="3" name="描述"/>
-    <tableColumn id="4" name="状态"/>
-    <tableColumn id="5" name="审查人"/>
-    <tableColumn id="6" name="输入"/>
-    <tableColumn id="7" name="输出"/>
-    <tableColumn id="8" name="主要技术关键字"/>
-    <tableColumn id="9" name="联系（e-mail）"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="工具名"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="来源"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="描述"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="状态"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="审查人"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="输入"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="输出"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="主要技术关键字"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="联系（e-mail）"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="论文"/>
-    <tableColumn id="2" name="描述"/>
-    <tableColumn id="3" name="状态"/>
-    <tableColumn id="4" name="备注"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="论文"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="描述"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="状态"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:K11" totalsRowShown="0">
-  <autoFilter ref="A1:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表3" displayName="表3" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="title"/>
-    <tableColumn id="3" name="inc_url"/>
-    <tableColumn id="4" name="pdf_url"/>
-    <tableColumn id="5" name="year"/>
-    <tableColumn id="6" name="include"/>
-    <tableColumn id="7" name="doi"/>
-    <tableColumn id="8" name="published_in"/>
-    <tableColumn id="9" name="keywords"/>
-    <tableColumn id="10" name="abstract"/>
-    <tableColumn id="11" name="列1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="title"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="inc_url"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="pdf_url"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="year"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="include"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="doi"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="published_in"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="keywords"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="abstract"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2258,11 +2267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2297,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2302,96 +2311,96 @@
         <v>6</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>7</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>11</v>
+      <c r="D3" s="26" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>474</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2411,25 +2420,27 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{DCB17E1A-214E-41C6-A0E2-38780B05D0C5}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{926839C9-35BC-4F09-A1DB-6CD88C292B96}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2446,10 +2457,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2458,25 +2469,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15"/>
@@ -2488,38 +2499,38 @@
     </row>
     <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2530,40 +2541,40 @@
     </row>
     <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2575,10 +2586,10 @@
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2590,7 +2601,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15"/>
@@ -2603,10 +2614,10 @@
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2618,10 +2629,10 @@
     <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2633,7 +2644,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -2646,10 +2657,10 @@
     <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -2661,10 +2672,10 @@
     <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -2676,10 +2687,10 @@
     <row r="14" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -2691,10 +2702,10 @@
     <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -2706,10 +2717,10 @@
     <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -2721,10 +2732,10 @@
     <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2736,10 +2747,10 @@
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2751,10 +2762,10 @@
     <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2766,10 +2777,10 @@
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2781,10 +2792,10 @@
     <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2796,10 +2807,10 @@
     <row r="22" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2811,10 +2822,10 @@
     <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2826,10 +2837,10 @@
     <row r="24" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2841,10 +2852,10 @@
     <row r="25" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2856,7 +2867,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15"/>
@@ -2869,10 +2880,10 @@
     <row r="27" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2884,10 +2895,10 @@
     <row r="28" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2899,10 +2910,10 @@
     <row r="29" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2914,7 +2925,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
@@ -2927,10 +2938,10 @@
     <row r="31" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2942,10 +2953,10 @@
     <row r="32" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2957,7 +2968,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15"/>
@@ -2970,10 +2981,10 @@
     <row r="34" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2985,10 +2996,10 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -3000,10 +3011,10 @@
     <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -3015,10 +3026,10 @@
     <row r="37" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -3030,10 +3041,10 @@
     <row r="38" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -3045,10 +3056,10 @@
     <row r="39" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -3060,10 +3071,10 @@
     <row r="40" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -3075,10 +3086,10 @@
     <row r="41" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
@@ -3090,10 +3101,10 @@
     <row r="42" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -3105,10 +3116,10 @@
     <row r="43" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -3120,10 +3131,10 @@
     <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -3135,7 +3146,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15"/>
@@ -3148,10 +3159,10 @@
     <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -3163,10 +3174,10 @@
     <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -3178,10 +3189,10 @@
     <row r="48" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="37" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -3193,10 +3204,10 @@
     <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -3208,10 +3219,10 @@
     <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
@@ -3222,38 +3233,38 @@
     </row>
     <row r="51" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="G51" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="H51" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
@@ -3265,10 +3276,10 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -3280,10 +3291,10 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -3294,17 +3305,17 @@
     </row>
     <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -3314,7 +3325,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3327,14 +3338,14 @@
     <row r="57" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -3343,63 +3354,63 @@
     </row>
     <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="I58" s="15"/>
     </row>
     <row r="59" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -3408,75 +3419,75 @@
     </row>
     <row r="61" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>164</v>
       </c>
       <c r="I61" s="15"/>
     </row>
     <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
       <c r="I62" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
@@ -3484,14 +3495,14 @@
     <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3501,14 +3512,14 @@
     <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3518,14 +3529,14 @@
     <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -3535,14 +3546,14 @@
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3552,14 +3563,14 @@
     <row r="68" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -3569,14 +3580,14 @@
     <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3586,14 +3597,14 @@
     <row r="70" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3603,14 +3614,14 @@
     <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3620,14 +3631,14 @@
     <row r="72" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3637,14 +3648,14 @@
     <row r="73" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3654,14 +3665,14 @@
     <row r="74" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3671,14 +3682,14 @@
     <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3688,14 +3699,14 @@
     <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3705,14 +3716,14 @@
     <row r="77" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3722,14 +3733,14 @@
     <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -3739,14 +3750,14 @@
     <row r="79" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -3756,14 +3767,14 @@
     <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -3773,7 +3784,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -3786,14 +3797,14 @@
     <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -3803,14 +3814,14 @@
     <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F83" s="15"/>
       <c r="G83" s="15"/>
@@ -3820,14 +3831,14 @@
     <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F84" s="15"/>
       <c r="G84" s="15"/>
@@ -3837,14 +3848,14 @@
     <row r="85" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
@@ -3854,14 +3865,14 @@
     <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
@@ -3871,14 +3882,14 @@
     <row r="87" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -3888,14 +3899,14 @@
     <row r="88" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -3905,14 +3916,14 @@
     <row r="89" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -3922,14 +3933,14 @@
     <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -3939,14 +3950,14 @@
     <row r="91" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -3956,14 +3967,14 @@
     <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -3973,14 +3984,14 @@
     <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -3990,7 +4001,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="15"/>
@@ -4003,14 +4014,14 @@
     <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -4020,14 +4031,14 @@
     <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -4037,14 +4048,14 @@
     <row r="97" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -4054,14 +4065,14 @@
     <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -4071,14 +4082,14 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -4088,14 +4099,14 @@
     <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -4105,14 +4116,14 @@
     <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -4122,14 +4133,14 @@
     <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -4139,14 +4150,14 @@
     <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
       <c r="B103" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F103" s="15"/>
       <c r="G103" s="15"/>
@@ -4156,14 +4167,14 @@
     <row r="104" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
       <c r="B104" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F104" s="15"/>
       <c r="G104" s="15"/>
@@ -4173,14 +4184,14 @@
     <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
       <c r="B105" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F105" s="15"/>
       <c r="G105" s="15"/>
@@ -4190,14 +4201,14 @@
     <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
       <c r="B106" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F106" s="15"/>
       <c r="G106" s="15"/>
@@ -4206,17 +4217,17 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F107" s="15"/>
       <c r="G107" s="15"/>
@@ -4226,14 +4237,14 @@
     <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
       <c r="B108" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -4243,14 +4254,14 @@
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
       <c r="B109" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
@@ -4260,14 +4271,14 @@
     <row r="110" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
@@ -4277,14 +4288,14 @@
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F111" s="15"/>
       <c r="G111" s="15"/>
@@ -4294,7 +4305,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
       <c r="B112" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
@@ -4307,14 +4318,14 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
       <c r="B113" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F113" s="15"/>
       <c r="G113" s="15"/>
@@ -4324,14 +4335,14 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
       <c r="B114" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F114" s="15"/>
       <c r="G114" s="15"/>
@@ -4341,7 +4352,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
       <c r="B115" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -4354,14 +4365,14 @@
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
       <c r="B116" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F116" s="15"/>
       <c r="G116" s="15"/>
@@ -4371,14 +4382,14 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
       <c r="B117" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F117" s="15"/>
       <c r="G117" s="15"/>
@@ -4388,14 +4399,14 @@
     <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
       <c r="B118" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F118" s="15"/>
       <c r="G118" s="15"/>
@@ -4405,14 +4416,14 @@
     <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
       <c r="B119" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F119" s="15"/>
       <c r="G119" s="15"/>
@@ -4422,14 +4433,14 @@
     <row r="120" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
       <c r="B120" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
@@ -4439,14 +4450,14 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
       <c r="B121" s="15" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F121" s="15"/>
       <c r="G121" s="15"/>
@@ -4456,14 +4467,14 @@
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
       <c r="B122" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F122" s="15"/>
       <c r="G122" s="15"/>
@@ -4473,14 +4484,14 @@
     <row r="123" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
       <c r="B123" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F123" s="15"/>
       <c r="G123" s="15"/>
@@ -4490,14 +4501,14 @@
     <row r="124" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
       <c r="B124" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124" s="15"/>
       <c r="G124" s="15"/>
@@ -4507,14 +4518,14 @@
     <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
@@ -4524,14 +4535,14 @@
     <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
       <c r="B126" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F126" s="15"/>
       <c r="G126" s="15"/>
@@ -4540,17 +4551,17 @@
     </row>
     <row r="127" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
@@ -4559,17 +4570,17 @@
     </row>
     <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
@@ -4578,17 +4589,17 @@
     </row>
     <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F129" s="15"/>
       <c r="G129" s="15"/>
@@ -4598,14 +4609,14 @@
     <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
       <c r="B130" s="15" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
@@ -4615,14 +4626,14 @@
     <row r="131" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
       <c r="B131" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
@@ -4632,14 +4643,14 @@
     <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
       <c r="B132" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -4649,14 +4660,14 @@
     <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
       <c r="B133" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F133" s="15"/>
       <c r="G133" s="15"/>
@@ -4666,7 +4677,7 @@
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
       <c r="B134" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
@@ -4679,14 +4690,14 @@
     <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
       <c r="B135" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
@@ -4696,14 +4707,14 @@
     <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
       <c r="B136" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F136" s="15"/>
       <c r="G136" s="15"/>
@@ -4713,14 +4724,14 @@
     <row r="137" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
       <c r="B137" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
@@ -4730,14 +4741,14 @@
     <row r="138" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -4747,14 +4758,14 @@
     <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
@@ -4764,14 +4775,14 @@
     <row r="140" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
       <c r="B140" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
@@ -4781,14 +4792,14 @@
     <row r="141" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
       <c r="B141" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
@@ -4798,14 +4809,14 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
       <c r="B142" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
@@ -4815,14 +4826,14 @@
     <row r="143" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
       <c r="B143" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
@@ -4832,14 +4843,14 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
       <c r="B144" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
@@ -4849,14 +4860,14 @@
     <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
       <c r="B145" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
@@ -4866,14 +4877,14 @@
     <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
       <c r="B146" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
@@ -4883,14 +4894,14 @@
     <row r="147" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
       <c r="B147" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D147" s="20"/>
       <c r="E147" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
@@ -4900,7 +4911,7 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
       <c r="B148" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
@@ -4912,40 +4923,40 @@
     </row>
     <row r="149" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A149" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H149" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D149" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F149" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G149" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="H149" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="I149" s="20"/>
     </row>
     <row r="150" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
@@ -4956,96 +4967,96 @@
     </row>
     <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G151" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
     </row>
     <row r="152" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F152" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G152" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B152" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="C152" s="22" t="s">
+      <c r="H152" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D152" s="21" t="s">
+      <c r="I152" s="23" t="s">
         <v>354</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F152" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G152" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="H152" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="I152" s="23" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D153" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G153" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C153" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D153" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="E153" s="33" t="s">
+      <c r="H153" s="35" t="s">
         <v>426</v>
-      </c>
-      <c r="F153" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="G153" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="H153" s="35" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B154" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="D154" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="C154" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="D154" s="35" t="s">
-        <v>435</v>
-      </c>
       <c r="E154" s="35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
@@ -5053,122 +5064,127 @@
     </row>
     <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="B155" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="B155" s="31" t="s">
-        <v>442</v>
-      </c>
       <c r="C155" s="33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="44.25" x14ac:dyDescent="0.2">
       <c r="A156" s="33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B156" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D156" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E156" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F156" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H156" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="B157" t="s">
+        <v>443</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="G157" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="H157" s="33" t="s">
         <v>445</v>
-      </c>
-      <c r="B157" t="s">
-        <v>446</v>
-      </c>
-      <c r="C157" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="F157" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="G157" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="H157" s="33" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D159" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F159" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G159" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H159" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B160" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D160" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C161" s="14" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1"/>
-    <hyperlink ref="I62" r:id="rId2"/>
-    <hyperlink ref="B155" r:id="rId3"/>
-    <hyperlink ref="B159" r:id="rId4"/>
+    <hyperlink ref="B51" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I62" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B155" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B159" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -5179,7 +5195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5208,20 +5224,20 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
@@ -5236,15 +5252,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="24.125" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="12.75" customWidth="1"/>
@@ -5254,37 +5271,37 @@
   <sheetData>
     <row r="1" spans="1:47" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
@@ -5292,27 +5309,27 @@
         <v>805</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E2" s="2">
         <v>2017</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -5357,34 +5374,34 @@
         <v>300</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E3" s="2">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="156.75" x14ac:dyDescent="0.2">
@@ -5392,34 +5409,34 @@
         <v>589</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E4" s="2">
         <v>2016</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="171" x14ac:dyDescent="0.2">
@@ -5427,32 +5444,32 @@
         <v>625</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E5" s="2">
         <v>2017</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
@@ -5460,34 +5477,34 @@
         <v>952</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E6" s="2">
         <v>2017</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5495,19 +5512,19 @@
         <v>222</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1">
         <v>2016</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -5516,7 +5533,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5525,51 +5542,51 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:47" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>706</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E9" s="2">
         <v>2017</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
